--- a/RT Weaponlist.xlsx
+++ b/RT Weaponlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RT Analyzation\RT-Analyzation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657B9940-6507-4C81-9906-05DA398FB842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F5BD1-A06B-4844-8A04-3BD7385AA83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>Max Bonus Ammo Damage</t>
   </si>
   <si>
-    <t>Highest Direct Damage Ammo</t>
+    <t>Highest Direct Damage Ammo (Comparing Damage Bonus/Multiplier)</t>
   </si>
   <si>
     <t>AOE Damage</t>
@@ -3731,9 +3731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ728"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3743,9 +3743,9 @@
     <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="10" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38.42578125" bestFit="1" customWidth="1"/>
@@ -3770,7 +3770,9 @@
     <col min="33" max="34" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.28515625" customWidth="1"/>
     <col min="36" max="37" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="43" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" customWidth="1"/>
+    <col min="42" max="43" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="5" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5008,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="T10" t="s">
         <v>66</v>
@@ -5139,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="T11" t="s">
         <v>70</v>
@@ -5270,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T12" t="s">
         <v>70</v>
@@ -5401,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="T13" t="s">
         <v>70</v>
@@ -5532,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s">
         <v>70</v>
@@ -5794,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="T16" t="s">
         <v>77</v>
@@ -5898,7 +5900,7 @@
         <v>60</v>
       </c>
       <c r="J17">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
@@ -5940,13 +5942,13 @@
         <v>63</v>
       </c>
       <c r="X17">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y17">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Z17">
-        <v>9.5500000000000007</v>
+        <v>10.36</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -5985,19 +5987,19 @@
         <v>55.000000000000007</v>
       </c>
       <c r="AM17">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AN17">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AO17">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AP17">
-        <v>46.17</v>
+        <v>53.1</v>
       </c>
       <c r="AQ17">
-        <v>33</v>
+        <v>37.950000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -6187,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>48</v>
+        <v>1152</v>
       </c>
       <c r="T19" t="s">
         <v>77</v>
@@ -6318,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="T20" t="s">
         <v>77</v>
@@ -6449,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>80</v>
+        <v>3200</v>
       </c>
       <c r="T21" t="s">
         <v>86</v>
@@ -6577,10 +6579,10 @@
         <v>33</v>
       </c>
       <c r="R22" s="6">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="S22">
-        <v>40</v>
+        <v>1600</v>
       </c>
       <c r="T22" t="s">
         <v>86</v>
@@ -6708,10 +6710,10 @@
         <v>10</v>
       </c>
       <c r="R23" s="6">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="S23">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="T23" t="s">
         <v>89</v>
@@ -6839,7 +6841,7 @@
         <v>2</v>
       </c>
       <c r="R24" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -9042,7 +9044,7 @@
         <v>50</v>
       </c>
       <c r="J41">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K41" s="7">
         <v>0</v>
@@ -9084,13 +9086,13 @@
         <v>46</v>
       </c>
       <c r="X41">
-        <v>6.67</v>
+        <v>8.75</v>
       </c>
       <c r="Y41">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z41">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA41">
         <v>1</v>
@@ -9129,19 +9131,19 @@
         <v>0</v>
       </c>
       <c r="AM41">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AN41">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO41">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AP41">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AQ41">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
@@ -9173,7 +9175,7 @@
         <v>102</v>
       </c>
       <c r="J42">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="K42" s="7">
         <v>0</v>
@@ -9215,13 +9217,13 @@
         <v>46</v>
       </c>
       <c r="X42">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y42">
-        <v>76.5</v>
+        <v>102</v>
       </c>
       <c r="Z42">
-        <v>25.5</v>
+        <v>34</v>
       </c>
       <c r="AA42">
         <v>1</v>
@@ -9260,19 +9262,19 @@
         <v>35</v>
       </c>
       <c r="AM42">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="AN42">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="AO42">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="AP42">
-        <v>60.13</v>
+        <v>90.19</v>
       </c>
       <c r="AQ42">
-        <v>35.700000000000003</v>
+        <v>53.55</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -9304,7 +9306,7 @@
         <v>150</v>
       </c>
       <c r="J43">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="K43" s="7">
         <v>0</v>
@@ -9346,13 +9348,13 @@
         <v>46</v>
       </c>
       <c r="X43">
-        <v>9.6</v>
+        <v>12.6</v>
       </c>
       <c r="Y43">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Z43">
-        <v>20</v>
+        <v>26.25</v>
       </c>
       <c r="AA43">
         <v>1</v>
@@ -9391,19 +9393,19 @@
         <v>0</v>
       </c>
       <c r="AM43">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="AN43">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="AO43">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="AP43">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="AQ43">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
@@ -9435,7 +9437,7 @@
         <v>25</v>
       </c>
       <c r="J44">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="K44" s="7">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>46</v>
       </c>
       <c r="X44">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Y44">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z44">
-        <v>20</v>
+        <v>26.25</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -9522,19 +9524,19 @@
         <v>0</v>
       </c>
       <c r="AM44">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AN44">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AO44">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AP44">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AQ44">
-        <v>25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
@@ -9566,7 +9568,7 @@
         <v>165</v>
       </c>
       <c r="J45">
-        <v>330</v>
+        <v>461.99999999999989</v>
       </c>
       <c r="K45" s="7">
         <v>0</v>
@@ -9590,10 +9592,10 @@
         <v>84</v>
       </c>
       <c r="R45" s="6">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="S45">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="T45" t="s">
         <v>127</v>
@@ -9608,13 +9610,13 @@
         <v>63</v>
       </c>
       <c r="X45">
-        <v>5.44</v>
+        <v>7.09</v>
       </c>
       <c r="Y45">
-        <v>87</v>
+        <v>113.4</v>
       </c>
       <c r="Z45">
-        <v>25.59</v>
+        <v>33.35</v>
       </c>
       <c r="AA45">
         <v>1</v>
@@ -9653,19 +9655,19 @@
         <v>0</v>
       </c>
       <c r="AM45">
-        <v>330</v>
+        <v>461.99999999999989</v>
       </c>
       <c r="AN45">
-        <v>330</v>
+        <v>461.99999999999989</v>
       </c>
       <c r="AO45">
-        <v>330</v>
+        <v>461.99999999999989</v>
       </c>
       <c r="AP45">
-        <v>330</v>
+        <v>461.99999999999989</v>
       </c>
       <c r="AQ45">
-        <v>330</v>
+        <v>461.99999999999989</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
@@ -10090,7 +10092,7 @@
         <v>100</v>
       </c>
       <c r="J49">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K49" s="7">
         <v>0</v>
@@ -10132,13 +10134,13 @@
         <v>46</v>
       </c>
       <c r="X49">
-        <v>8.67</v>
+        <v>12</v>
       </c>
       <c r="Y49">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="Z49">
-        <v>18.57</v>
+        <v>25.71</v>
       </c>
       <c r="AA49">
         <v>1</v>
@@ -10177,19 +10179,19 @@
         <v>0</v>
       </c>
       <c r="AM49">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AN49">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AO49">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AP49">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AQ49">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
@@ -10248,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T50" t="s">
         <v>70</v>
@@ -10376,7 +10378,7 @@
         <v>10</v>
       </c>
       <c r="R51" s="6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -10507,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="R52" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -12579,7 +12581,7 @@
         <v>40</v>
       </c>
       <c r="J68">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K68" s="7">
         <v>0</v>
@@ -12606,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="T68" t="s">
         <v>156</v>
@@ -12621,13 +12623,13 @@
         <v>46</v>
       </c>
       <c r="X68">
-        <v>3.08</v>
+        <v>4.62</v>
       </c>
       <c r="Y68">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Z68">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA68">
         <v>2.5</v>
@@ -12666,19 +12668,19 @@
         <v>0</v>
       </c>
       <c r="AM68">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN68">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO68">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP68">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AQ68">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
@@ -12710,7 +12712,7 @@
         <v>77</v>
       </c>
       <c r="J69">
-        <v>77</v>
+        <v>115.5</v>
       </c>
       <c r="K69" s="7">
         <v>0</v>
@@ -12737,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="T69" t="s">
         <v>156</v>
@@ -12752,13 +12754,13 @@
         <v>46</v>
       </c>
       <c r="X69">
-        <v>5.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y69">
-        <v>19.25</v>
+        <v>28.88</v>
       </c>
       <c r="Z69">
-        <v>19.25</v>
+        <v>28.88</v>
       </c>
       <c r="AA69">
         <v>2</v>
@@ -12797,19 +12799,19 @@
         <v>0</v>
       </c>
       <c r="AM69">
-        <v>77</v>
+        <v>115.5</v>
       </c>
       <c r="AN69">
-        <v>77</v>
+        <v>115.5</v>
       </c>
       <c r="AO69">
-        <v>77</v>
+        <v>115.5</v>
       </c>
       <c r="AP69">
-        <v>77</v>
+        <v>115.5</v>
       </c>
       <c r="AQ69">
-        <v>77</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
@@ -12865,7 +12867,7 @@
         <v>13.5</v>
       </c>
       <c r="R70" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -12996,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -13130,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="T72" t="s">
         <v>70</v>
@@ -13392,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="S74">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="T74" t="s">
         <v>70</v>
@@ -13523,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="S75">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="T75" t="s">
         <v>70</v>
@@ -13758,7 +13760,7 @@
         <v>150</v>
       </c>
       <c r="J77">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="K77" s="7">
         <v>0</v>
@@ -13785,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="S77">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="T77" t="s">
         <v>171</v>
@@ -13803,10 +13805,10 @@
         <v>0</v>
       </c>
       <c r="Y77">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="Z77">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AA77">
         <v>1</v>
@@ -13845,19 +13847,19 @@
         <v>0</v>
       </c>
       <c r="AM77">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AN77">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AO77">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AP77">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AQ77">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
@@ -13916,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="S78">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="T78" t="s">
         <v>175</v>
@@ -14047,7 +14049,7 @@
         <v>0</v>
       </c>
       <c r="S79">
-        <v>25</v>
+        <v>625</v>
       </c>
       <c r="T79" t="s">
         <v>179</v>
@@ -14178,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <v>48</v>
+        <v>1152</v>
       </c>
       <c r="T80" t="s">
         <v>77</v>
@@ -14309,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="S81">
-        <v>80</v>
+        <v>3200</v>
       </c>
       <c r="T81" t="s">
         <v>86</v>
@@ -14440,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="S82">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="T82" t="s">
         <v>183</v>
@@ -14571,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="S83">
-        <v>36</v>
+        <v>648</v>
       </c>
       <c r="T83" t="s">
         <v>89</v>
@@ -14702,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="S84">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T84" t="s">
         <v>183</v>
@@ -15723,7 +15725,7 @@
         <v>50</v>
       </c>
       <c r="J92">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K92" s="7">
         <v>0</v>
@@ -15765,13 +15767,13 @@
         <v>46</v>
       </c>
       <c r="X92">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="Y92">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z92">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AA92">
         <v>1</v>
@@ -15810,19 +15812,19 @@
         <v>0</v>
       </c>
       <c r="AM92">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AN92">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO92">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AP92">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AQ92">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
@@ -15854,7 +15856,7 @@
         <v>75</v>
       </c>
       <c r="J93">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="K93" s="7">
         <v>0</v>
@@ -15896,13 +15898,13 @@
         <v>46</v>
       </c>
       <c r="X93">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="Y93">
-        <v>60</v>
+        <v>78.75</v>
       </c>
       <c r="Z93">
-        <v>34.29</v>
+        <v>45</v>
       </c>
       <c r="AA93">
         <v>1</v>
@@ -15941,19 +15943,19 @@
         <v>0</v>
       </c>
       <c r="AM93">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AN93">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AO93">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AP93">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AQ93">
-        <v>75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
@@ -15985,7 +15987,7 @@
         <v>100</v>
       </c>
       <c r="J94">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K94" s="7">
         <v>0</v>
@@ -16027,13 +16029,13 @@
         <v>46</v>
       </c>
       <c r="X94">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="Y94">
-        <v>53.33</v>
+        <v>70</v>
       </c>
       <c r="Z94">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AA94">
         <v>1</v>
@@ -16072,19 +16074,19 @@
         <v>0</v>
       </c>
       <c r="AM94">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AN94">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AO94">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AP94">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AQ94">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
@@ -16116,7 +16118,7 @@
         <v>25</v>
       </c>
       <c r="J95">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="K95" s="7">
         <v>0</v>
@@ -16158,13 +16160,13 @@
         <v>46</v>
       </c>
       <c r="X95">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="Y95">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z95">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="AA95">
         <v>1</v>
@@ -16203,19 +16205,19 @@
         <v>0</v>
       </c>
       <c r="AM95">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AN95">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AO95">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AP95">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AQ95">
-        <v>25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
@@ -17164,7 +17166,7 @@
         <v>60</v>
       </c>
       <c r="J103">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K103" s="7">
         <v>0</v>
@@ -17191,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="S103">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="T103" t="s">
         <v>156</v>
@@ -17206,13 +17208,13 @@
         <v>46</v>
       </c>
       <c r="X103">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Y103">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Z103">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="AA103">
         <v>1</v>
@@ -17251,19 +17253,19 @@
         <v>0</v>
       </c>
       <c r="AM103">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN103">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO103">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AP103">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AQ103">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
@@ -17295,7 +17297,7 @@
         <v>20</v>
       </c>
       <c r="J104">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K104" s="7">
         <v>0</v>
@@ -17322,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="S104">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="T104" t="s">
         <v>156</v>
@@ -17337,13 +17339,13 @@
         <v>46</v>
       </c>
       <c r="X104">
-        <v>3.33</v>
+        <v>5</v>
       </c>
       <c r="Y104">
+        <v>30</v>
+      </c>
+      <c r="Z104">
         <v>20</v>
-      </c>
-      <c r="Z104">
-        <v>13.33</v>
       </c>
       <c r="AA104">
         <v>2</v>
@@ -17382,19 +17384,19 @@
         <v>0</v>
       </c>
       <c r="AM104">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AN104">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AO104">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP104">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AQ104">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
@@ -17426,7 +17428,7 @@
         <v>40</v>
       </c>
       <c r="J105">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -17453,7 +17455,7 @@
         <v>0</v>
       </c>
       <c r="S105">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="T105" t="s">
         <v>156</v>
@@ -17468,13 +17470,13 @@
         <v>46</v>
       </c>
       <c r="X105">
-        <v>3.33</v>
+        <v>5</v>
       </c>
       <c r="Y105">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Z105">
-        <v>13.33</v>
+        <v>20</v>
       </c>
       <c r="AA105">
         <v>2</v>
@@ -17513,19 +17515,19 @@
         <v>0</v>
       </c>
       <c r="AM105">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN105">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO105">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP105">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AQ105">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.25">
@@ -17557,7 +17559,7 @@
         <v>60</v>
       </c>
       <c r="J106">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K106" s="7">
         <v>0</v>
@@ -17584,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="S106">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="T106" t="s">
         <v>156</v>
@@ -17599,13 +17601,13 @@
         <v>46</v>
       </c>
       <c r="X106">
-        <v>3.33</v>
+        <v>5</v>
       </c>
       <c r="Y106">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Z106">
-        <v>13.33</v>
+        <v>20</v>
       </c>
       <c r="AA106">
         <v>2</v>
@@ -17644,19 +17646,19 @@
         <v>0</v>
       </c>
       <c r="AM106">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN106">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO106">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AP106">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AQ106">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:43" x14ac:dyDescent="0.25">
@@ -20204,7 +20206,7 @@
         <v>0</v>
       </c>
       <c r="S126">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="T126" t="s">
         <v>233</v>
@@ -20335,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="S127">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="T127" t="s">
         <v>233</v>
@@ -20466,7 +20468,7 @@
         <v>0</v>
       </c>
       <c r="S128">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="T128" t="s">
         <v>233</v>
@@ -20597,7 +20599,7 @@
         <v>0</v>
       </c>
       <c r="S129">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="T129" t="s">
         <v>233</v>
@@ -20990,7 +20992,7 @@
         <v>0</v>
       </c>
       <c r="S132">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T132" t="s">
         <v>242</v>
@@ -21121,7 +21123,7 @@
         <v>0</v>
       </c>
       <c r="S133">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="T133" t="s">
         <v>242</v>
@@ -21252,7 +21254,7 @@
         <v>0</v>
       </c>
       <c r="S134">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="T134" t="s">
         <v>242</v>
@@ -21383,7 +21385,7 @@
         <v>0</v>
       </c>
       <c r="S135">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="T135" t="s">
         <v>242</v>
@@ -21511,7 +21513,7 @@
         <v>10</v>
       </c>
       <c r="R136" s="6">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="S136">
         <v>0</v>
@@ -22273,7 +22275,7 @@
         <v>40</v>
       </c>
       <c r="J142">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K142" s="7">
         <v>0</v>
@@ -22315,13 +22317,13 @@
         <v>46</v>
       </c>
       <c r="X142">
-        <v>5.79</v>
+        <v>7.89</v>
       </c>
       <c r="Y142">
-        <v>27.5</v>
+        <v>37.5</v>
       </c>
       <c r="Z142">
-        <v>36.67</v>
+        <v>50</v>
       </c>
       <c r="AA142">
         <v>1</v>
@@ -22360,19 +22362,19 @@
         <v>0</v>
       </c>
       <c r="AM142">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN142">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AO142">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP142">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AQ142">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:43" x14ac:dyDescent="0.25">
@@ -22404,7 +22406,7 @@
         <v>60</v>
       </c>
       <c r="J143">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K143" s="7">
         <v>0</v>
@@ -22446,13 +22448,13 @@
         <v>46</v>
       </c>
       <c r="X143">
-        <v>5.89</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="Y143">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Z143">
-        <v>36.67</v>
+        <v>50</v>
       </c>
       <c r="AA143">
         <v>1</v>
@@ -22491,19 +22493,19 @@
         <v>0</v>
       </c>
       <c r="AM143">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN143">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AO143">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AP143">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AQ143">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144" spans="1:43" x14ac:dyDescent="0.25">
@@ -22535,7 +22537,7 @@
         <v>80</v>
       </c>
       <c r="J144">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K144" s="7">
         <v>0</v>
@@ -22577,13 +22579,13 @@
         <v>46</v>
       </c>
       <c r="X144">
-        <v>5.79</v>
+        <v>7.89</v>
       </c>
       <c r="Y144">
-        <v>36.67</v>
+        <v>50</v>
       </c>
       <c r="Z144">
-        <v>36.67</v>
+        <v>50</v>
       </c>
       <c r="AA144">
         <v>1</v>
@@ -22622,19 +22624,19 @@
         <v>0</v>
       </c>
       <c r="AM144">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="AN144">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="AO144">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="AP144">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="AQ144">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" spans="1:43" x14ac:dyDescent="0.25">
@@ -22666,7 +22668,7 @@
         <v>20</v>
       </c>
       <c r="J145">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K145" s="7">
         <v>0</v>
@@ -22708,13 +22710,13 @@
         <v>46</v>
       </c>
       <c r="X145">
-        <v>6.11</v>
+        <v>8.33</v>
       </c>
       <c r="Y145">
-        <v>27.5</v>
+        <v>37.5</v>
       </c>
       <c r="Z145">
-        <v>36.67</v>
+        <v>50</v>
       </c>
       <c r="AA145">
         <v>1</v>
@@ -22753,19 +22755,19 @@
         <v>0</v>
       </c>
       <c r="AM145">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN145">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO145">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP145">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AQ145">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:43" x14ac:dyDescent="0.25">
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="S162">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="T162" t="s">
         <v>66</v>
@@ -25051,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="S163">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="T163" t="s">
         <v>66</v>
@@ -25155,7 +25157,7 @@
         <v>100</v>
       </c>
       <c r="J164">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K164" s="7">
         <v>0</v>
@@ -25197,13 +25199,13 @@
         <v>46</v>
       </c>
       <c r="X164">
-        <v>6.67</v>
+        <v>4</v>
       </c>
       <c r="Y164">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z164">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AA164">
         <v>1</v>
@@ -25242,19 +25244,19 @@
         <v>0</v>
       </c>
       <c r="AM164">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AN164">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AO164">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AP164">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AQ164">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:43" x14ac:dyDescent="0.25">
@@ -25286,7 +25288,7 @@
         <v>100</v>
       </c>
       <c r="J165">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K165" s="7">
         <v>0</v>
@@ -25328,13 +25330,13 @@
         <v>46</v>
       </c>
       <c r="X165">
-        <v>6.67</v>
+        <v>4</v>
       </c>
       <c r="Y165">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Z165">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AA165">
         <v>1</v>
@@ -25373,19 +25375,19 @@
         <v>0</v>
       </c>
       <c r="AM165">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AN165">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AO165">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AP165">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AQ165">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:43" x14ac:dyDescent="0.25">
@@ -25417,7 +25419,7 @@
         <v>150</v>
       </c>
       <c r="J166">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="K166" s="7">
         <v>0</v>
@@ -25444,7 +25446,7 @@
         <v>0</v>
       </c>
       <c r="S166">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="T166" t="s">
         <v>171</v>
@@ -25459,13 +25461,13 @@
         <v>46</v>
       </c>
       <c r="X166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y166">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Z166">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA166">
         <v>1</v>
@@ -25504,19 +25506,19 @@
         <v>0</v>
       </c>
       <c r="AM166">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AN166">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AO166">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AP166">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AQ166">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:43" x14ac:dyDescent="0.25">
@@ -25548,7 +25550,7 @@
         <v>150</v>
       </c>
       <c r="J167">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="K167" s="7">
         <v>0</v>
@@ -25575,7 +25577,7 @@
         <v>0</v>
       </c>
       <c r="S167">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="T167" t="s">
         <v>171</v>
@@ -25590,13 +25592,13 @@
         <v>46</v>
       </c>
       <c r="X167">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y167">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="Z167">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AA167">
         <v>1</v>
@@ -25635,19 +25637,19 @@
         <v>0</v>
       </c>
       <c r="AM167">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AN167">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AO167">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AP167">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AQ167">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:43" x14ac:dyDescent="0.25">
@@ -25706,7 +25708,7 @@
         <v>0</v>
       </c>
       <c r="S168">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="T168" t="s">
         <v>175</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="S169">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="T169" t="s">
         <v>175</v>
@@ -25968,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="S170">
-        <v>25</v>
+        <v>625</v>
       </c>
       <c r="T170" t="s">
         <v>179</v>
@@ -26099,7 +26101,7 @@
         <v>0</v>
       </c>
       <c r="S171">
-        <v>25</v>
+        <v>625</v>
       </c>
       <c r="T171" t="s">
         <v>179</v>
@@ -26227,7 +26229,7 @@
         <v>18</v>
       </c>
       <c r="R172" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S172">
         <v>0</v>
@@ -27278,7 +27280,7 @@
         <v>0</v>
       </c>
       <c r="S180">
-        <v>25</v>
+        <v>625</v>
       </c>
       <c r="T180" t="s">
         <v>179</v>
@@ -27382,7 +27384,7 @@
         <v>300</v>
       </c>
       <c r="J181">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="K181" s="7">
         <v>0</v>
@@ -27409,7 +27411,7 @@
         <v>0</v>
       </c>
       <c r="S181">
-        <v>150</v>
+        <v>7500</v>
       </c>
       <c r="T181" t="s">
         <v>295</v>
@@ -27424,13 +27426,13 @@
         <v>46</v>
       </c>
       <c r="X181">
-        <v>4.29</v>
+        <v>6</v>
       </c>
       <c r="Y181">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Z181">
-        <v>12</v>
+        <v>16.8</v>
       </c>
       <c r="AA181">
         <v>1</v>
@@ -27469,19 +27471,19 @@
         <v>0</v>
       </c>
       <c r="AM181">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="AN181">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="AO181">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="AP181">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="AQ181">
-        <v>300</v>
+        <v>420</v>
       </c>
     </row>
     <row r="182" spans="1:43" x14ac:dyDescent="0.25">
@@ -28061,7 +28063,7 @@
         <v>5</v>
       </c>
       <c r="R186" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S186">
         <v>0</v>
@@ -28323,7 +28325,7 @@
         <v>20</v>
       </c>
       <c r="R188" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S188">
         <v>0</v>
@@ -28954,7 +28956,7 @@
         <v>100</v>
       </c>
       <c r="J193">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K193" s="7">
         <v>0</v>
@@ -28996,10 +28998,10 @@
         <v>46</v>
       </c>
       <c r="X193">
-        <v>6.67</v>
+        <v>4</v>
       </c>
       <c r="Y193">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z193">
         <v>0</v>
@@ -29041,19 +29043,19 @@
         <v>0</v>
       </c>
       <c r="AM193">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AN193">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AO193">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AP193">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AQ193">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:43" x14ac:dyDescent="0.25">
@@ -29764,7 +29766,7 @@
         <v>5</v>
       </c>
       <c r="R199" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S199">
         <v>0</v>
@@ -30026,7 +30028,7 @@
         <v>20</v>
       </c>
       <c r="R201" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S201">
         <v>0</v>
@@ -30553,7 +30555,7 @@
         <v>0</v>
       </c>
       <c r="S205">
-        <v>48</v>
+        <v>4608</v>
       </c>
       <c r="T205" t="s">
         <v>77</v>
@@ -30657,7 +30659,7 @@
         <v>60</v>
       </c>
       <c r="J206">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K206" s="7">
         <v>0</v>
@@ -30699,13 +30701,13 @@
         <v>46</v>
       </c>
       <c r="X206">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y206">
-        <v>15</v>
+        <v>16.29</v>
       </c>
       <c r="Z206">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA206">
         <v>1</v>
@@ -30744,19 +30746,19 @@
         <v>0</v>
       </c>
       <c r="AM206">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AN206">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AO206">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AP206">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AQ206">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:43" x14ac:dyDescent="0.25">
@@ -30946,7 +30948,7 @@
         <v>0</v>
       </c>
       <c r="S208">
-        <v>80</v>
+        <v>16000</v>
       </c>
       <c r="T208" t="s">
         <v>86</v>
@@ -31339,7 +31341,7 @@
         <v>0</v>
       </c>
       <c r="S211">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="T211" t="s">
         <v>183</v>
@@ -31443,7 +31445,7 @@
         <v>25</v>
       </c>
       <c r="J212">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="K212" s="7">
         <v>0</v>
@@ -31485,13 +31487,13 @@
         <v>46</v>
       </c>
       <c r="X212">
-        <v>14.67</v>
+        <v>15.92</v>
       </c>
       <c r="Y212">
-        <v>11</v>
+        <v>11.94</v>
       </c>
       <c r="Z212">
-        <v>7.33</v>
+        <v>7.96</v>
       </c>
       <c r="AA212">
         <v>1</v>
@@ -31530,19 +31532,19 @@
         <v>0</v>
       </c>
       <c r="AM212">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AN212">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AO212">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AP212">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AQ212">
-        <v>25</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="213" spans="1:43" x14ac:dyDescent="0.25">
@@ -31732,7 +31734,7 @@
         <v>0</v>
       </c>
       <c r="S214">
-        <v>35.64</v>
+        <v>1944</v>
       </c>
       <c r="T214" t="s">
         <v>89</v>
@@ -31836,7 +31838,7 @@
         <v>45</v>
       </c>
       <c r="J215">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="K215" s="7">
         <v>0</v>
@@ -31878,13 +31880,13 @@
         <v>46</v>
       </c>
       <c r="X215">
-        <v>19.5</v>
+        <v>21.19</v>
       </c>
       <c r="Y215">
-        <v>13</v>
+        <v>14.12</v>
       </c>
       <c r="Z215">
-        <v>9.75</v>
+        <v>10.59</v>
       </c>
       <c r="AA215">
         <v>1</v>
@@ -31923,19 +31925,19 @@
         <v>0</v>
       </c>
       <c r="AM215">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AN215">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AO215">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AP215">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AQ215">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
     </row>
     <row r="216" spans="1:43" x14ac:dyDescent="0.25">
@@ -32622,7 +32624,7 @@
         <v>40</v>
       </c>
       <c r="J221">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K221" s="7">
         <v>0</v>
@@ -32664,13 +32666,13 @@
         <v>46</v>
       </c>
       <c r="X221">
-        <v>11.67</v>
+        <v>15</v>
       </c>
       <c r="Y221">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Z221">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AA221">
         <v>1</v>
@@ -32709,19 +32711,19 @@
         <v>0</v>
       </c>
       <c r="AM221">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN221">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO221">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP221">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AQ221">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:43" x14ac:dyDescent="0.25">
@@ -32753,7 +32755,7 @@
         <v>60</v>
       </c>
       <c r="J222">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K222" s="7">
         <v>0</v>
@@ -32795,13 +32797,13 @@
         <v>46</v>
       </c>
       <c r="X222">
-        <v>11.67</v>
+        <v>15</v>
       </c>
       <c r="Y222">
-        <v>52.5</v>
+        <v>67.5</v>
       </c>
       <c r="Z222">
-        <v>30</v>
+        <v>38.57</v>
       </c>
       <c r="AA222">
         <v>1</v>
@@ -32840,19 +32842,19 @@
         <v>0</v>
       </c>
       <c r="AM222">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN222">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO222">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AP222">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AQ222">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223" spans="1:43" x14ac:dyDescent="0.25">
@@ -32884,7 +32886,7 @@
         <v>80</v>
       </c>
       <c r="J223">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K223" s="7">
         <v>0</v>
@@ -32926,13 +32928,13 @@
         <v>46</v>
       </c>
       <c r="X223">
-        <v>11.67</v>
+        <v>15</v>
       </c>
       <c r="Y223">
-        <v>46.67</v>
+        <v>60</v>
       </c>
       <c r="Z223">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AA223">
         <v>1</v>
@@ -32971,19 +32973,19 @@
         <v>0</v>
       </c>
       <c r="AM223">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN223">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AO223">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP223">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AQ223">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="224" spans="1:43" x14ac:dyDescent="0.25">
@@ -33015,7 +33017,7 @@
         <v>20</v>
       </c>
       <c r="J224">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K224" s="7">
         <v>0</v>
@@ -33057,13 +33059,13 @@
         <v>46</v>
       </c>
       <c r="X224">
-        <v>11.67</v>
+        <v>15</v>
       </c>
       <c r="Y224">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z224">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA224">
         <v>1</v>
@@ -33102,19 +33104,19 @@
         <v>0</v>
       </c>
       <c r="AM224">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AN224">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AO224">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP224">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AQ224">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:43" x14ac:dyDescent="0.25">
@@ -33539,7 +33541,7 @@
         <v>16</v>
       </c>
       <c r="J228">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K228" s="7">
         <v>0</v>
@@ -33566,7 +33568,7 @@
         <v>0</v>
       </c>
       <c r="S228">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="T228" t="s">
         <v>156</v>
@@ -33581,13 +33583,13 @@
         <v>46</v>
       </c>
       <c r="X228">
-        <v>5.33</v>
+        <v>8</v>
       </c>
       <c r="Y228">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Z228">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AA228">
         <v>1</v>
@@ -33626,19 +33628,19 @@
         <v>0</v>
       </c>
       <c r="AM228">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AN228">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AO228">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AP228">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AQ228">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:43" x14ac:dyDescent="0.25">
@@ -33801,7 +33803,7 @@
         <v>32</v>
       </c>
       <c r="J230">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K230" s="7">
         <v>0</v>
@@ -33828,7 +33830,7 @@
         <v>0</v>
       </c>
       <c r="S230">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="T230" t="s">
         <v>156</v>
@@ -33843,13 +33845,13 @@
         <v>46</v>
       </c>
       <c r="X230">
-        <v>5.33</v>
+        <v>8</v>
       </c>
       <c r="Y230">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Z230">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AA230">
         <v>1</v>
@@ -33888,19 +33890,19 @@
         <v>0</v>
       </c>
       <c r="AM230">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AN230">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AO230">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AP230">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AQ230">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="231" spans="1:43" x14ac:dyDescent="0.25">
@@ -34063,7 +34065,7 @@
         <v>48</v>
       </c>
       <c r="J232">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K232" s="7">
         <v>0</v>
@@ -34090,7 +34092,7 @@
         <v>0</v>
       </c>
       <c r="S232">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="T232" t="s">
         <v>156</v>
@@ -34105,13 +34107,13 @@
         <v>46</v>
       </c>
       <c r="X232">
-        <v>5.33</v>
+        <v>8</v>
       </c>
       <c r="Y232">
+        <v>36</v>
+      </c>
+      <c r="Z232">
         <v>24</v>
-      </c>
-      <c r="Z232">
-        <v>16</v>
       </c>
       <c r="AA232">
         <v>1</v>
@@ -34150,19 +34152,19 @@
         <v>0</v>
       </c>
       <c r="AM232">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AN232">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AO232">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AP232">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AQ232">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:43" x14ac:dyDescent="0.25">
@@ -34587,7 +34589,7 @@
         <v>60</v>
       </c>
       <c r="J236">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K236" s="7">
         <v>0</v>
@@ -34629,13 +34631,13 @@
         <v>46</v>
       </c>
       <c r="X236">
-        <v>13.12</v>
+        <v>14.25</v>
       </c>
       <c r="Y236">
-        <v>26.25</v>
+        <v>28.5</v>
       </c>
       <c r="Z236">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="AA236">
         <v>1</v>
@@ -34674,19 +34676,19 @@
         <v>0</v>
       </c>
       <c r="AM236">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AN236">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AO236">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AP236">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AQ236">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="237" spans="1:43" x14ac:dyDescent="0.25">
@@ -34849,7 +34851,7 @@
         <v>25</v>
       </c>
       <c r="J238">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="K238" s="7">
         <v>0</v>
@@ -34891,13 +34893,13 @@
         <v>46</v>
       </c>
       <c r="X238">
-        <v>11</v>
+        <v>11.94</v>
       </c>
       <c r="Y238">
-        <v>22</v>
+        <v>23.88</v>
       </c>
       <c r="Z238">
-        <v>11</v>
+        <v>11.94</v>
       </c>
       <c r="AA238">
         <v>1</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="AM238">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AN238">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AO238">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AP238">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AQ238">
-        <v>25</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="239" spans="1:43" x14ac:dyDescent="0.25">
@@ -34980,7 +34982,7 @@
         <v>45</v>
       </c>
       <c r="J239">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="K239" s="7">
         <v>0</v>
@@ -35022,13 +35024,13 @@
         <v>46</v>
       </c>
       <c r="X239">
-        <v>15.6</v>
+        <v>16.95</v>
       </c>
       <c r="Y239">
-        <v>19.5</v>
+        <v>21.19</v>
       </c>
       <c r="Z239">
-        <v>13</v>
+        <v>14.12</v>
       </c>
       <c r="AA239">
         <v>1</v>
@@ -35067,19 +35069,19 @@
         <v>0</v>
       </c>
       <c r="AM239">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AN239">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AO239">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AP239">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AQ239">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
     </row>
     <row r="240" spans="1:43" x14ac:dyDescent="0.25">
@@ -35397,7 +35399,7 @@
         <v>2</v>
       </c>
       <c r="R242" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S242">
         <v>0</v>
@@ -39461,7 +39463,7 @@
         <v>0</v>
       </c>
       <c r="S273">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="T273" t="s">
         <v>398</v>
@@ -39592,7 +39594,7 @@
         <v>0</v>
       </c>
       <c r="S274">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T274" t="s">
         <v>398</v>
@@ -39723,7 +39725,7 @@
         <v>0</v>
       </c>
       <c r="S275">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="T275" t="s">
         <v>398</v>
@@ -39854,7 +39856,7 @@
         <v>0</v>
       </c>
       <c r="S276">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="T276" t="s">
         <v>398</v>
@@ -39958,7 +39960,7 @@
         <v>40</v>
       </c>
       <c r="J277">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K277" s="7">
         <v>0</v>
@@ -40000,13 +40002,13 @@
         <v>46</v>
       </c>
       <c r="X277">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y277">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z277">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AA277">
         <v>1</v>
@@ -40045,19 +40047,19 @@
         <v>0</v>
       </c>
       <c r="AM277">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN277">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO277">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP277">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AQ277">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="278" spans="1:43" x14ac:dyDescent="0.25">
@@ -40220,7 +40222,7 @@
         <v>60</v>
       </c>
       <c r="J279">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K279" s="7">
         <v>0</v>
@@ -40262,13 +40264,13 @@
         <v>46</v>
       </c>
       <c r="X279">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y279">
-        <v>52.5</v>
+        <v>67.5</v>
       </c>
       <c r="Z279">
-        <v>30</v>
+        <v>38.57</v>
       </c>
       <c r="AA279">
         <v>1</v>
@@ -40307,19 +40309,19 @@
         <v>0</v>
       </c>
       <c r="AM279">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN279">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO279">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AP279">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AQ279">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="280" spans="1:43" x14ac:dyDescent="0.25">
@@ -40482,7 +40484,7 @@
         <v>80</v>
       </c>
       <c r="J281">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K281" s="7">
         <v>0</v>
@@ -40524,13 +40526,13 @@
         <v>46</v>
       </c>
       <c r="X281">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y281">
-        <v>46.67</v>
+        <v>60</v>
       </c>
       <c r="Z281">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AA281">
         <v>1</v>
@@ -40569,19 +40571,19 @@
         <v>0</v>
       </c>
       <c r="AM281">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN281">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AO281">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP281">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AQ281">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="282" spans="1:43" x14ac:dyDescent="0.25">
@@ -40744,7 +40746,7 @@
         <v>20</v>
       </c>
       <c r="J283">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K283" s="7">
         <v>0</v>
@@ -40786,13 +40788,13 @@
         <v>46</v>
       </c>
       <c r="X283">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y283">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z283">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA283">
         <v>1</v>
@@ -40831,19 +40833,19 @@
         <v>0</v>
       </c>
       <c r="AM283">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AN283">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AO283">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP283">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AQ283">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284" spans="1:43" x14ac:dyDescent="0.25">
@@ -41792,7 +41794,7 @@
         <v>16</v>
       </c>
       <c r="J291">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K291" s="7">
         <v>0</v>
@@ -41834,13 +41836,13 @@
         <v>46</v>
       </c>
       <c r="X291">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y291">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Z291">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA291">
         <v>1</v>
@@ -41879,19 +41881,19 @@
         <v>0</v>
       </c>
       <c r="AM291">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AN291">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AO291">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AP291">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AQ291">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="292" spans="1:43" x14ac:dyDescent="0.25">
@@ -41923,7 +41925,7 @@
         <v>32</v>
       </c>
       <c r="J292">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K292" s="7">
         <v>0</v>
@@ -41965,13 +41967,13 @@
         <v>46</v>
       </c>
       <c r="X292">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y292">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z292">
-        <v>19.2</v>
+        <v>32</v>
       </c>
       <c r="AA292">
         <v>1</v>
@@ -42010,19 +42012,19 @@
         <v>0</v>
       </c>
       <c r="AM292">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AN292">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AO292">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AP292">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AQ292">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="293" spans="1:43" x14ac:dyDescent="0.25">
@@ -42054,7 +42056,7 @@
         <v>48</v>
       </c>
       <c r="J293">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="K293" s="7">
         <v>0</v>
@@ -42096,13 +42098,13 @@
         <v>46</v>
       </c>
       <c r="X293">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y293">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="Z293">
-        <v>20.57</v>
+        <v>34.29</v>
       </c>
       <c r="AA293">
         <v>1</v>
@@ -42141,19 +42143,19 @@
         <v>0</v>
       </c>
       <c r="AM293">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="AN293">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="AO293">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="AP293">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="AQ293">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="294" spans="1:43" x14ac:dyDescent="0.25">
@@ -42185,7 +42187,7 @@
         <v>64</v>
       </c>
       <c r="J294">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K294" s="7">
         <v>0</v>
@@ -42227,13 +42229,13 @@
         <v>46</v>
       </c>
       <c r="X294">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y294">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z294">
-        <v>19.2</v>
+        <v>32</v>
       </c>
       <c r="AA294">
         <v>1</v>
@@ -42272,19 +42274,19 @@
         <v>0</v>
       </c>
       <c r="AM294">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AN294">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AO294">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP294">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ294">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="295" spans="1:43" x14ac:dyDescent="0.25">
@@ -42340,7 +42342,7 @@
         <v>0</v>
       </c>
       <c r="R295" s="6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S295">
         <v>0</v>
@@ -42605,7 +42607,7 @@
         <v>0</v>
       </c>
       <c r="S297">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="T297" t="s">
         <v>425</v>
@@ -42736,7 +42738,7 @@
         <v>0</v>
       </c>
       <c r="S298">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="T298" t="s">
         <v>427</v>
@@ -42840,7 +42842,7 @@
         <v>16</v>
       </c>
       <c r="J299">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K299" s="7">
         <v>0</v>
@@ -42867,7 +42869,7 @@
         <v>0</v>
       </c>
       <c r="S299">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="T299" t="s">
         <v>156</v>
@@ -42882,13 +42884,13 @@
         <v>46</v>
       </c>
       <c r="X299">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y299">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Z299">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA299">
         <v>1</v>
@@ -42927,19 +42929,19 @@
         <v>0</v>
       </c>
       <c r="AM299">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AN299">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AO299">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AP299">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AQ299">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" spans="1:43" x14ac:dyDescent="0.25">
@@ -43102,7 +43104,7 @@
         <v>32</v>
       </c>
       <c r="J301">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K301" s="7">
         <v>0</v>
@@ -43129,7 +43131,7 @@
         <v>0</v>
       </c>
       <c r="S301">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="T301" t="s">
         <v>156</v>
@@ -43144,13 +43146,13 @@
         <v>46</v>
       </c>
       <c r="X301">
-        <v>4.57</v>
+        <v>6.86</v>
       </c>
       <c r="Y301">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Z301">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA301">
         <v>1</v>
@@ -43189,19 +43191,19 @@
         <v>0</v>
       </c>
       <c r="AM301">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AN301">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AO301">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AP301">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AQ301">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="302" spans="1:43" x14ac:dyDescent="0.25">
@@ -43364,7 +43366,7 @@
         <v>48</v>
       </c>
       <c r="J303">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K303" s="7">
         <v>0</v>
@@ -43391,7 +43393,7 @@
         <v>0</v>
       </c>
       <c r="S303">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="T303" t="s">
         <v>156</v>
@@ -43406,13 +43408,13 @@
         <v>46</v>
       </c>
       <c r="X303">
-        <v>4.3600000000000003</v>
+        <v>6.55</v>
       </c>
       <c r="Y303">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="Z303">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA303">
         <v>1</v>
@@ -43451,19 +43453,19 @@
         <v>0</v>
       </c>
       <c r="AM303">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AN303">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AO303">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AP303">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AQ303">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="304" spans="1:43" x14ac:dyDescent="0.25">
@@ -44701,7 +44703,7 @@
         <v>0</v>
       </c>
       <c r="S313">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="T313" t="s">
         <v>425</v>
@@ -46008,7 +46010,7 @@
         <v>5</v>
       </c>
       <c r="R323" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S323">
         <v>0</v>
@@ -47449,7 +47451,7 @@
         <v>5</v>
       </c>
       <c r="R334" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S334">
         <v>0</v>
@@ -48366,7 +48368,7 @@
         <v>2</v>
       </c>
       <c r="R341" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S341">
         <v>0</v>
@@ -48759,7 +48761,7 @@
         <v>1</v>
       </c>
       <c r="R344" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S344">
         <v>0</v>
@@ -49414,7 +49416,7 @@
         <v>5</v>
       </c>
       <c r="R349" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S349">
         <v>0</v>
@@ -49941,7 +49943,7 @@
         <v>0</v>
       </c>
       <c r="S353">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="T353" t="s">
         <v>77</v>
@@ -51379,7 +51381,7 @@
         <v>13.2</v>
       </c>
       <c r="R364" s="6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S364">
         <v>0</v>
@@ -51903,7 +51905,7 @@
         <v>10</v>
       </c>
       <c r="R368" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S368">
         <v>0</v>
@@ -52034,7 +52036,7 @@
         <v>15</v>
       </c>
       <c r="R369" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S369">
         <v>0</v>
@@ -52165,7 +52167,7 @@
         <v>20</v>
       </c>
       <c r="R370" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S370">
         <v>0</v>
@@ -52296,7 +52298,7 @@
         <v>5</v>
       </c>
       <c r="R371" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S371">
         <v>0</v>
@@ -56360,7 +56362,7 @@
         <v>0</v>
       </c>
       <c r="S402">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="T402" t="s">
         <v>89</v>
@@ -57539,7 +57541,7 @@
         <v>0</v>
       </c>
       <c r="S411">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T411" t="s">
         <v>555</v>
@@ -57643,7 +57645,7 @@
         <v>44</v>
       </c>
       <c r="J412">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K412" s="7">
         <v>0</v>
@@ -57685,13 +57687,13 @@
         <v>46</v>
       </c>
       <c r="X412">
-        <v>8.56</v>
+        <v>11</v>
       </c>
       <c r="Y412">
-        <v>25.67</v>
+        <v>33</v>
       </c>
       <c r="Z412">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA412">
         <v>1</v>
@@ -57730,19 +57732,19 @@
         <v>0</v>
       </c>
       <c r="AM412">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="AN412">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="AO412">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="AP412">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="AQ412">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="413" spans="1:43" x14ac:dyDescent="0.25">
@@ -57774,7 +57776,7 @@
         <v>48</v>
       </c>
       <c r="J413">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K413" s="7">
         <v>0</v>
@@ -57816,13 +57818,13 @@
         <v>46</v>
       </c>
       <c r="X413">
-        <v>9.33</v>
+        <v>12</v>
       </c>
       <c r="Y413">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Z413">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA413">
         <v>1</v>
@@ -57861,19 +57863,19 @@
         <v>0</v>
       </c>
       <c r="AM413">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AN413">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AO413">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AP413">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AQ413">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="414" spans="1:43" x14ac:dyDescent="0.25">
@@ -57905,7 +57907,7 @@
         <v>52</v>
       </c>
       <c r="J414">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="K414" s="7">
         <v>0</v>
@@ -57947,13 +57949,13 @@
         <v>46</v>
       </c>
       <c r="X414">
-        <v>10.11</v>
+        <v>13</v>
       </c>
       <c r="Y414">
-        <v>30.33</v>
+        <v>39</v>
       </c>
       <c r="Z414">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA414">
         <v>1</v>
@@ -57992,19 +57994,19 @@
         <v>0</v>
       </c>
       <c r="AM414">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AN414">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AO414">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AP414">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AQ414">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="415" spans="1:43" x14ac:dyDescent="0.25">
@@ -58036,7 +58038,7 @@
         <v>56</v>
       </c>
       <c r="J415">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="K415" s="7">
         <v>0</v>
@@ -58078,13 +58080,13 @@
         <v>46</v>
       </c>
       <c r="X415">
-        <v>10.89</v>
+        <v>14</v>
       </c>
       <c r="Y415">
-        <v>32.67</v>
+        <v>42</v>
       </c>
       <c r="Z415">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA415">
         <v>1</v>
@@ -58123,19 +58125,19 @@
         <v>0</v>
       </c>
       <c r="AM415">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AN415">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AO415">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AP415">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AQ415">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="416" spans="1:43" x14ac:dyDescent="0.25">
@@ -58167,7 +58169,7 @@
         <v>64</v>
       </c>
       <c r="J416">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K416" s="7">
         <v>0</v>
@@ -58209,13 +58211,13 @@
         <v>46</v>
       </c>
       <c r="X416">
-        <v>12.44</v>
+        <v>16</v>
       </c>
       <c r="Y416">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Z416">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA416">
         <v>1</v>
@@ -58254,19 +58256,19 @@
         <v>0</v>
       </c>
       <c r="AM416">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="AN416">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="AO416">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="AP416">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="AQ416">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="417" spans="1:43" x14ac:dyDescent="0.25">
@@ -58298,7 +58300,7 @@
         <v>68</v>
       </c>
       <c r="J417">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="K417" s="7">
         <v>0</v>
@@ -58340,13 +58342,13 @@
         <v>46</v>
       </c>
       <c r="X417">
-        <v>13.22</v>
+        <v>17</v>
       </c>
       <c r="Y417">
-        <v>29.75</v>
+        <v>38.25</v>
       </c>
       <c r="Z417">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA417">
         <v>1</v>
@@ -58385,19 +58387,19 @@
         <v>0</v>
       </c>
       <c r="AM417">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AN417">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AO417">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AP417">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AQ417">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="418" spans="1:43" x14ac:dyDescent="0.25">
@@ -58429,7 +58431,7 @@
         <v>72</v>
       </c>
       <c r="J418">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K418" s="7">
         <v>0</v>
@@ -58471,13 +58473,13 @@
         <v>46</v>
       </c>
       <c r="X418">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y418">
-        <v>31.5</v>
+        <v>40.5</v>
       </c>
       <c r="Z418">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA418">
         <v>1</v>
@@ -58516,19 +58518,19 @@
         <v>0</v>
       </c>
       <c r="AM418">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AN418">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AO418">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AP418">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AQ418">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="419" spans="1:43" x14ac:dyDescent="0.25">
@@ -58560,7 +58562,7 @@
         <v>76</v>
       </c>
       <c r="J419">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K419" s="7">
         <v>0</v>
@@ -58602,13 +58604,13 @@
         <v>46</v>
       </c>
       <c r="X419">
-        <v>14.78</v>
+        <v>19</v>
       </c>
       <c r="Y419">
-        <v>33.25</v>
+        <v>42.75</v>
       </c>
       <c r="Z419">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA419">
         <v>1</v>
@@ -58647,19 +58649,19 @@
         <v>0</v>
       </c>
       <c r="AM419">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AN419">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AO419">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AP419">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AQ419">
-        <v>76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="420" spans="1:43" x14ac:dyDescent="0.25">
@@ -58691,7 +58693,7 @@
         <v>4</v>
       </c>
       <c r="J420">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K420" s="7">
         <v>0</v>
@@ -58733,13 +58735,13 @@
         <v>46</v>
       </c>
       <c r="X420">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="Y420">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z420">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA420">
         <v>1</v>
@@ -58778,19 +58780,19 @@
         <v>0</v>
       </c>
       <c r="AM420">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN420">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO420">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP420">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ420">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="421" spans="1:43" x14ac:dyDescent="0.25">
@@ -58822,7 +58824,7 @@
         <v>8</v>
       </c>
       <c r="J421">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K421" s="7">
         <v>0</v>
@@ -58864,13 +58866,13 @@
         <v>46</v>
       </c>
       <c r="X421">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="Y421">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z421">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA421">
         <v>1</v>
@@ -58909,19 +58911,19 @@
         <v>0</v>
       </c>
       <c r="AM421">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AN421">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO421">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP421">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AQ421">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="422" spans="1:43" x14ac:dyDescent="0.25">
@@ -58953,7 +58955,7 @@
         <v>12</v>
       </c>
       <c r="J422">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K422" s="7">
         <v>0</v>
@@ -58995,13 +58997,13 @@
         <v>46</v>
       </c>
       <c r="X422">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="Y422">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Z422">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA422">
         <v>1</v>
@@ -59040,19 +59042,19 @@
         <v>0</v>
       </c>
       <c r="AM422">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AN422">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AO422">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AP422">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AQ422">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423" spans="1:43" x14ac:dyDescent="0.25">
@@ -59084,7 +59086,7 @@
         <v>16</v>
       </c>
       <c r="J423">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K423" s="7">
         <v>0</v>
@@ -59126,13 +59128,13 @@
         <v>46</v>
       </c>
       <c r="X423">
-        <v>3.11</v>
+        <v>4</v>
       </c>
       <c r="Y423">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Z423">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA423">
         <v>1</v>
@@ -59171,19 +59173,19 @@
         <v>0</v>
       </c>
       <c r="AM423">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AN423">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AO423">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AP423">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AQ423">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="424" spans="1:43" x14ac:dyDescent="0.25">
@@ -59215,7 +59217,7 @@
         <v>24</v>
       </c>
       <c r="J424">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K424" s="7">
         <v>0</v>
@@ -59257,13 +59259,13 @@
         <v>46</v>
       </c>
       <c r="X424">
-        <v>4.67</v>
+        <v>6</v>
       </c>
       <c r="Y424">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Z424">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA424">
         <v>1</v>
@@ -59302,19 +59304,19 @@
         <v>0</v>
       </c>
       <c r="AM424">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AN424">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AO424">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AP424">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AQ424">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="425" spans="1:43" x14ac:dyDescent="0.25">
@@ -59346,7 +59348,7 @@
         <v>28</v>
       </c>
       <c r="J425">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K425" s="7">
         <v>0</v>
@@ -59388,13 +59390,13 @@
         <v>46</v>
       </c>
       <c r="X425">
-        <v>5.44</v>
+        <v>7</v>
       </c>
       <c r="Y425">
-        <v>24.5</v>
+        <v>31.5</v>
       </c>
       <c r="Z425">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA425">
         <v>1</v>
@@ -59433,19 +59435,19 @@
         <v>0</v>
       </c>
       <c r="AM425">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AN425">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AO425">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AP425">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AQ425">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="426" spans="1:43" x14ac:dyDescent="0.25">
@@ -59477,7 +59479,7 @@
         <v>32</v>
       </c>
       <c r="J426">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K426" s="7">
         <v>0</v>
@@ -59519,13 +59521,13 @@
         <v>46</v>
       </c>
       <c r="X426">
-        <v>6.22</v>
+        <v>8</v>
       </c>
       <c r="Y426">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Z426">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA426">
         <v>1</v>
@@ -59564,19 +59566,19 @@
         <v>0</v>
       </c>
       <c r="AM426">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AN426">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AO426">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AP426">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AQ426">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="427" spans="1:43" x14ac:dyDescent="0.25">
@@ -59608,7 +59610,7 @@
         <v>36</v>
       </c>
       <c r="J427">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="K427" s="7">
         <v>0</v>
@@ -59650,13 +59652,13 @@
         <v>46</v>
       </c>
       <c r="X427">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y427">
-        <v>31.5</v>
+        <v>40.5</v>
       </c>
       <c r="Z427">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA427">
         <v>1</v>
@@ -59695,19 +59697,19 @@
         <v>0</v>
       </c>
       <c r="AM427">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AN427">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AO427">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AP427">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AQ427">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="428" spans="1:43" x14ac:dyDescent="0.25">
@@ -60001,7 +60003,7 @@
         <v>20</v>
       </c>
       <c r="J430">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K430" s="7">
         <v>0</v>
@@ -60043,13 +60045,13 @@
         <v>46</v>
       </c>
       <c r="X430">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y430">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z430">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA430">
         <v>1</v>
@@ -60088,19 +60090,19 @@
         <v>0</v>
       </c>
       <c r="AM430">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AN430">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO430">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP430">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ430">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="431" spans="1:43" x14ac:dyDescent="0.25">
@@ -60132,7 +60134,7 @@
         <v>40</v>
       </c>
       <c r="J431">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K431" s="7">
         <v>0</v>
@@ -60174,13 +60176,13 @@
         <v>46</v>
       </c>
       <c r="X431">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y431">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z431">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA431">
         <v>1</v>
@@ -60219,19 +60221,19 @@
         <v>0</v>
       </c>
       <c r="AM431">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AN431">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AO431">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AP431">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AQ431">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="432" spans="1:43" x14ac:dyDescent="0.25">
@@ -60263,7 +60265,7 @@
         <v>8</v>
       </c>
       <c r="J432">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K432" s="7">
         <v>0</v>
@@ -60290,7 +60292,7 @@
         <v>0</v>
       </c>
       <c r="S432">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="T432" t="s">
         <v>156</v>
@@ -60305,13 +60307,13 @@
         <v>46</v>
       </c>
       <c r="X432">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="Y432">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z432">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA432">
         <v>1</v>
@@ -60350,19 +60352,19 @@
         <v>0</v>
       </c>
       <c r="AM432">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AN432">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO432">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP432">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AQ432">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="433" spans="1:43" x14ac:dyDescent="0.25">
@@ -60394,7 +60396,7 @@
         <v>24</v>
       </c>
       <c r="J433">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K433" s="7">
         <v>0</v>
@@ -60421,7 +60423,7 @@
         <v>0</v>
       </c>
       <c r="S433">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="T433" t="s">
         <v>156</v>
@@ -60436,13 +60438,13 @@
         <v>46</v>
       </c>
       <c r="X433">
-        <v>2.67</v>
+        <v>4</v>
       </c>
       <c r="Y433">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Z433">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA433">
         <v>1</v>
@@ -60481,19 +60483,19 @@
         <v>0</v>
       </c>
       <c r="AM433">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AN433">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AO433">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AP433">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AQ433">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="434" spans="1:43" x14ac:dyDescent="0.25">
@@ -60525,7 +60527,7 @@
         <v>40</v>
       </c>
       <c r="J434">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K434" s="7">
         <v>0</v>
@@ -60552,7 +60554,7 @@
         <v>0</v>
       </c>
       <c r="S434">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="T434" t="s">
         <v>156</v>
@@ -60567,13 +60569,13 @@
         <v>46</v>
       </c>
       <c r="X434">
-        <v>4.4400000000000004</v>
+        <v>6.67</v>
       </c>
       <c r="Y434">
-        <v>13.33</v>
+        <v>20</v>
       </c>
       <c r="Z434">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA434">
         <v>1</v>
@@ -60612,19 +60614,19 @@
         <v>0</v>
       </c>
       <c r="AM434">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN434">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO434">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP434">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AQ434">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="435" spans="1:43" x14ac:dyDescent="0.25">
@@ -61207,7 +61209,7 @@
         <v>0</v>
       </c>
       <c r="S439">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="T439" t="s">
         <v>70</v>
@@ -62752,7 +62754,7 @@
         <v>16</v>
       </c>
       <c r="J451">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K451" s="7">
         <v>0</v>
@@ -62794,13 +62796,13 @@
         <v>46</v>
       </c>
       <c r="X451">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Y451">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Z451">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA451">
         <v>1</v>
@@ -62839,19 +62841,19 @@
         <v>0</v>
       </c>
       <c r="AM451">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AN451">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AO451">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AP451">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AQ451">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="452" spans="1:43" x14ac:dyDescent="0.25">
@@ -63931,7 +63933,7 @@
         <v>100</v>
       </c>
       <c r="J460">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K460" s="7">
         <v>0</v>
@@ -63973,13 +63975,13 @@
         <v>46</v>
       </c>
       <c r="X460">
-        <v>7.78</v>
+        <v>13.33</v>
       </c>
       <c r="Y460">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="Z460">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AA460">
         <v>1</v>
@@ -64018,19 +64020,19 @@
         <v>0</v>
       </c>
       <c r="AM460">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN460">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AO460">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AP460">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AQ460">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="461" spans="1:43" x14ac:dyDescent="0.25">
@@ -64220,7 +64222,7 @@
         <v>0</v>
       </c>
       <c r="S462">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T462" t="s">
         <v>70</v>
@@ -64610,7 +64612,7 @@
         <v>10</v>
       </c>
       <c r="R465" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S465">
         <v>0</v>
@@ -64741,7 +64743,7 @@
         <v>15</v>
       </c>
       <c r="R466" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S466">
         <v>0</v>
@@ -64872,7 +64874,7 @@
         <v>20</v>
       </c>
       <c r="R467" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S467">
         <v>0</v>
@@ -65003,7 +65005,7 @@
         <v>5</v>
       </c>
       <c r="R468" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S468">
         <v>0</v>
@@ -65241,7 +65243,7 @@
         <v>40</v>
       </c>
       <c r="J470">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K470" s="7">
         <v>0</v>
@@ -65283,13 +65285,13 @@
         <v>46</v>
       </c>
       <c r="X470">
-        <v>8.4600000000000009</v>
+        <v>11.54</v>
       </c>
       <c r="Y470">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Z470">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AA470">
         <v>1</v>
@@ -65328,19 +65330,19 @@
         <v>0</v>
       </c>
       <c r="AM470">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN470">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AO470">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP470">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AQ470">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="471" spans="1:43" x14ac:dyDescent="0.25">
@@ -65920,7 +65922,7 @@
         <v>5</v>
       </c>
       <c r="R475" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S475">
         <v>0</v>
@@ -66447,7 +66449,7 @@
         <v>0</v>
       </c>
       <c r="S479">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="T479" t="s">
         <v>77</v>
@@ -66578,7 +66580,7 @@
         <v>0</v>
       </c>
       <c r="S480">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="T480" t="s">
         <v>77</v>
@@ -66709,7 +66711,7 @@
         <v>0</v>
       </c>
       <c r="S481">
-        <v>48</v>
+        <v>1152</v>
       </c>
       <c r="T481" t="s">
         <v>77</v>
@@ -66840,7 +66842,7 @@
         <v>0</v>
       </c>
       <c r="S482">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="T482" t="s">
         <v>77</v>
@@ -66971,7 +66973,7 @@
         <v>0</v>
       </c>
       <c r="S483">
-        <v>24</v>
+        <v>2880</v>
       </c>
       <c r="T483" t="s">
         <v>77</v>
@@ -67102,7 +67104,7 @@
         <v>0</v>
       </c>
       <c r="S484">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="T484" t="s">
         <v>77</v>
@@ -67233,7 +67235,7 @@
         <v>0</v>
       </c>
       <c r="S485">
-        <v>40</v>
+        <v>1600</v>
       </c>
       <c r="T485" t="s">
         <v>86</v>
@@ -67364,7 +67366,7 @@
         <v>0</v>
       </c>
       <c r="S486">
-        <v>40</v>
+        <v>1600</v>
       </c>
       <c r="T486" t="s">
         <v>86</v>
@@ -67495,7 +67497,7 @@
         <v>0</v>
       </c>
       <c r="S487">
-        <v>40</v>
+        <v>1600</v>
       </c>
       <c r="T487" t="s">
         <v>86</v>
@@ -67626,7 +67628,7 @@
         <v>0</v>
       </c>
       <c r="S488">
-        <v>80</v>
+        <v>3200</v>
       </c>
       <c r="T488" t="s">
         <v>86</v>
@@ -67757,7 +67759,7 @@
         <v>0</v>
       </c>
       <c r="S489">
-        <v>40</v>
+        <v>8000</v>
       </c>
       <c r="T489" t="s">
         <v>86</v>
@@ -67888,7 +67890,7 @@
         <v>0</v>
       </c>
       <c r="S490">
-        <v>40</v>
+        <v>1600</v>
       </c>
       <c r="T490" t="s">
         <v>86</v>
@@ -68019,7 +68021,7 @@
         <v>0</v>
       </c>
       <c r="S491">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T491" t="s">
         <v>183</v>
@@ -68150,7 +68152,7 @@
         <v>0</v>
       </c>
       <c r="S492">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T492" t="s">
         <v>183</v>
@@ -68281,7 +68283,7 @@
         <v>0</v>
       </c>
       <c r="S493">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T493" t="s">
         <v>183</v>
@@ -68412,7 +68414,7 @@
         <v>0</v>
       </c>
       <c r="S494">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T494" t="s">
         <v>183</v>
@@ -68543,7 +68545,7 @@
         <v>0</v>
       </c>
       <c r="S495">
-        <v>7.5</v>
+        <v>300</v>
       </c>
       <c r="T495" t="s">
         <v>183</v>
@@ -68674,7 +68676,7 @@
         <v>0</v>
       </c>
       <c r="S496">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="T496" t="s">
         <v>183</v>
@@ -68805,7 +68807,7 @@
         <v>0</v>
       </c>
       <c r="S497">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="T497" t="s">
         <v>89</v>
@@ -68936,7 +68938,7 @@
         <v>0</v>
       </c>
       <c r="S498">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="T498" t="s">
         <v>89</v>
@@ -69067,7 +69069,7 @@
         <v>0</v>
       </c>
       <c r="S499">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="T499" t="s">
         <v>89</v>
@@ -69198,7 +69200,7 @@
         <v>0</v>
       </c>
       <c r="S500">
-        <v>36</v>
+        <v>648</v>
       </c>
       <c r="T500" t="s">
         <v>89</v>
@@ -69329,7 +69331,7 @@
         <v>0</v>
       </c>
       <c r="S501">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="T501" t="s">
         <v>89</v>
@@ -69460,7 +69462,7 @@
         <v>0</v>
       </c>
       <c r="S502">
-        <v>14.4</v>
+        <v>1296</v>
       </c>
       <c r="T502" t="s">
         <v>89</v>
@@ -74542,7 +74544,7 @@
         <v>50</v>
       </c>
       <c r="J541">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K541" s="7">
         <v>0</v>
@@ -74584,13 +74586,13 @@
         <v>46</v>
       </c>
       <c r="X541">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y541">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z541">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA541">
         <v>1</v>
@@ -74629,19 +74631,19 @@
         <v>0</v>
       </c>
       <c r="AM541">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AN541">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO541">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AP541">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AQ541">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="542" spans="1:43" x14ac:dyDescent="0.25">
@@ -74673,7 +74675,7 @@
         <v>50</v>
       </c>
       <c r="J542">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K542" s="7">
         <v>0</v>
@@ -74715,13 +74717,13 @@
         <v>46</v>
       </c>
       <c r="X542">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y542">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z542">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA542">
         <v>1</v>
@@ -74760,19 +74762,19 @@
         <v>0</v>
       </c>
       <c r="AM542">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AN542">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO542">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AP542">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AQ542">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="543" spans="1:43" x14ac:dyDescent="0.25">
@@ -74804,7 +74806,7 @@
         <v>50</v>
       </c>
       <c r="J543">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K543" s="7">
         <v>0</v>
@@ -74846,13 +74848,13 @@
         <v>46</v>
       </c>
       <c r="X543">
-        <v>8.89</v>
+        <v>11.67</v>
       </c>
       <c r="Y543">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z543">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA543">
         <v>1</v>
@@ -74891,19 +74893,19 @@
         <v>0</v>
       </c>
       <c r="AM543">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AN543">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO543">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AP543">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AQ543">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="544" spans="1:43" x14ac:dyDescent="0.25">
@@ -74935,7 +74937,7 @@
         <v>50</v>
       </c>
       <c r="J544">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K544" s="7">
         <v>0</v>
@@ -74977,13 +74979,13 @@
         <v>46</v>
       </c>
       <c r="X544">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y544">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z544">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA544">
         <v>1</v>
@@ -75022,19 +75024,19 @@
         <v>0</v>
       </c>
       <c r="AM544">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AN544">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO544">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AP544">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AQ544">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="545" spans="1:43" x14ac:dyDescent="0.25">
@@ -75066,7 +75068,7 @@
         <v>60</v>
       </c>
       <c r="J545">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K545" s="7">
         <v>0</v>
@@ -75108,13 +75110,13 @@
         <v>46</v>
       </c>
       <c r="X545">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="Y545">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Z545">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AA545">
         <v>1</v>
@@ -75153,19 +75155,19 @@
         <v>0</v>
       </c>
       <c r="AM545">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN545">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO545">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AP545">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AQ545">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="546" spans="1:43" x14ac:dyDescent="0.25">
@@ -75197,7 +75199,7 @@
         <v>75</v>
       </c>
       <c r="J546">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="K546" s="7">
         <v>0</v>
@@ -75239,13 +75241,13 @@
         <v>46</v>
       </c>
       <c r="X546">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y546">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z546">
-        <v>17.14</v>
+        <v>22.5</v>
       </c>
       <c r="AA546">
         <v>1</v>
@@ -75284,19 +75286,19 @@
         <v>0</v>
       </c>
       <c r="AM546">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AN546">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AO546">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AP546">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AQ546">
-        <v>75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="547" spans="1:43" x14ac:dyDescent="0.25">
@@ -75328,7 +75330,7 @@
         <v>75</v>
       </c>
       <c r="J547">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="K547" s="7">
         <v>0</v>
@@ -75370,13 +75372,13 @@
         <v>46</v>
       </c>
       <c r="X547">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y547">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z547">
-        <v>17.14</v>
+        <v>22.5</v>
       </c>
       <c r="AA547">
         <v>1</v>
@@ -75415,19 +75417,19 @@
         <v>0</v>
       </c>
       <c r="AM547">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AN547">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AO547">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AP547">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AQ547">
-        <v>75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="548" spans="1:43" x14ac:dyDescent="0.25">
@@ -75459,7 +75461,7 @@
         <v>75</v>
       </c>
       <c r="J548">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="K548" s="7">
         <v>0</v>
@@ -75501,13 +75503,13 @@
         <v>46</v>
       </c>
       <c r="X548">
-        <v>8.57</v>
+        <v>11.25</v>
       </c>
       <c r="Y548">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z548">
-        <v>17.14</v>
+        <v>22.5</v>
       </c>
       <c r="AA548">
         <v>1</v>
@@ -75546,19 +75548,19 @@
         <v>0</v>
       </c>
       <c r="AM548">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AN548">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AO548">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AP548">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AQ548">
-        <v>75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="549" spans="1:43" x14ac:dyDescent="0.25">
@@ -75590,7 +75592,7 @@
         <v>75</v>
       </c>
       <c r="J549">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="K549" s="7">
         <v>0</v>
@@ -75632,13 +75634,13 @@
         <v>46</v>
       </c>
       <c r="X549">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y549">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z549">
-        <v>17.14</v>
+        <v>22.5</v>
       </c>
       <c r="AA549">
         <v>1</v>
@@ -75677,19 +75679,19 @@
         <v>0</v>
       </c>
       <c r="AM549">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AN549">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AO549">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AP549">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AQ549">
-        <v>75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="550" spans="1:43" x14ac:dyDescent="0.25">
@@ -75721,7 +75723,7 @@
         <v>90</v>
       </c>
       <c r="J550">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="K550" s="7">
         <v>0</v>
@@ -75763,13 +75765,13 @@
         <v>46</v>
       </c>
       <c r="X550">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="Y550">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Z550">
-        <v>19.29</v>
+        <v>25.71</v>
       </c>
       <c r="AA550">
         <v>1</v>
@@ -75808,19 +75810,19 @@
         <v>0</v>
       </c>
       <c r="AM550">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="AN550">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="AO550">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="AP550">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="AQ550">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="551" spans="1:43" x14ac:dyDescent="0.25">
@@ -75852,7 +75854,7 @@
         <v>100</v>
       </c>
       <c r="J551">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K551" s="7">
         <v>0</v>
@@ -75894,13 +75896,13 @@
         <v>46</v>
       </c>
       <c r="X551">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y551">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z551">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA551">
         <v>1</v>
@@ -75939,19 +75941,19 @@
         <v>0</v>
       </c>
       <c r="AM551">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AN551">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AO551">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AP551">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AQ551">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="552" spans="1:43" x14ac:dyDescent="0.25">
@@ -75983,7 +75985,7 @@
         <v>100</v>
       </c>
       <c r="J552">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K552" s="7">
         <v>0</v>
@@ -76025,13 +76027,13 @@
         <v>46</v>
       </c>
       <c r="X552">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y552">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z552">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA552">
         <v>1</v>
@@ -76070,19 +76072,19 @@
         <v>0</v>
       </c>
       <c r="AM552">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AN552">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AO552">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AP552">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AQ552">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="553" spans="1:43" x14ac:dyDescent="0.25">
@@ -76114,7 +76116,7 @@
         <v>100</v>
       </c>
       <c r="J553">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K553" s="7">
         <v>0</v>
@@ -76156,13 +76158,13 @@
         <v>46</v>
       </c>
       <c r="X553">
-        <v>8.42</v>
+        <v>11.05</v>
       </c>
       <c r="Y553">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z553">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA553">
         <v>1</v>
@@ -76201,19 +76203,19 @@
         <v>0</v>
       </c>
       <c r="AM553">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AN553">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AO553">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AP553">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AQ553">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="554" spans="1:43" x14ac:dyDescent="0.25">
@@ -76245,7 +76247,7 @@
         <v>100</v>
       </c>
       <c r="J554">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K554" s="7">
         <v>0</v>
@@ -76287,13 +76289,13 @@
         <v>46</v>
       </c>
       <c r="X554">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y554">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z554">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA554">
         <v>1</v>
@@ -76332,19 +76334,19 @@
         <v>0</v>
       </c>
       <c r="AM554">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AN554">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AO554">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AP554">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AQ554">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="555" spans="1:43" x14ac:dyDescent="0.25">
@@ -76376,7 +76378,7 @@
         <v>120</v>
       </c>
       <c r="J555">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K555" s="7">
         <v>0</v>
@@ -76418,13 +76420,13 @@
         <v>46</v>
       </c>
       <c r="X555">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="Y555">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Z555">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AA555">
         <v>1</v>
@@ -76463,19 +76465,19 @@
         <v>0</v>
       </c>
       <c r="AM555">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN555">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AO555">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AP555">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AQ555">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="556" spans="1:43" x14ac:dyDescent="0.25">
@@ -76507,7 +76509,7 @@
         <v>25</v>
       </c>
       <c r="J556">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="K556" s="7">
         <v>0</v>
@@ -76549,13 +76551,13 @@
         <v>46</v>
       </c>
       <c r="X556">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y556">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z556">
-        <v>20</v>
+        <v>26.25</v>
       </c>
       <c r="AA556">
         <v>1</v>
@@ -76594,19 +76596,19 @@
         <v>0</v>
       </c>
       <c r="AM556">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AN556">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AO556">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AP556">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AQ556">
-        <v>25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="557" spans="1:43" x14ac:dyDescent="0.25">
@@ -76638,7 +76640,7 @@
         <v>25</v>
       </c>
       <c r="J557">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="K557" s="7">
         <v>0</v>
@@ -76680,13 +76682,13 @@
         <v>46</v>
       </c>
       <c r="X557">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y557">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z557">
-        <v>20</v>
+        <v>26.25</v>
       </c>
       <c r="AA557">
         <v>1</v>
@@ -76725,19 +76727,19 @@
         <v>0</v>
       </c>
       <c r="AM557">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AN557">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AO557">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AP557">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AQ557">
-        <v>25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="558" spans="1:43" x14ac:dyDescent="0.25">
@@ -76769,7 +76771,7 @@
         <v>25</v>
       </c>
       <c r="J558">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="K558" s="7">
         <v>0</v>
@@ -76811,13 +76813,13 @@
         <v>46</v>
       </c>
       <c r="X558">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="Y558">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z558">
-        <v>20</v>
+        <v>26.25</v>
       </c>
       <c r="AA558">
         <v>1</v>
@@ -76856,19 +76858,19 @@
         <v>0</v>
       </c>
       <c r="AM558">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AN558">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AO558">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AP558">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AQ558">
-        <v>25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="559" spans="1:43" x14ac:dyDescent="0.25">
@@ -76900,7 +76902,7 @@
         <v>25</v>
       </c>
       <c r="J559">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="K559" s="7">
         <v>0</v>
@@ -76942,13 +76944,13 @@
         <v>46</v>
       </c>
       <c r="X559">
-        <v>10</v>
+        <v>13.12</v>
       </c>
       <c r="Y559">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="Z559">
-        <v>20</v>
+        <v>26.25</v>
       </c>
       <c r="AA559">
         <v>1</v>
@@ -76987,19 +76989,19 @@
         <v>0</v>
       </c>
       <c r="AM559">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AN559">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AO559">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AP559">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AQ559">
-        <v>25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="560" spans="1:43" x14ac:dyDescent="0.25">
@@ -77031,7 +77033,7 @@
         <v>30</v>
       </c>
       <c r="J560">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K560" s="7">
         <v>0</v>
@@ -77073,13 +77075,13 @@
         <v>46</v>
       </c>
       <c r="X560">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="Y560">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Z560">
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="AA560">
         <v>1</v>
@@ -77118,19 +77120,19 @@
         <v>0</v>
       </c>
       <c r="AM560">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AN560">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AO560">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AP560">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AQ560">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="561" spans="1:43" x14ac:dyDescent="0.25">
@@ -78341,7 +78343,7 @@
         <v>20</v>
       </c>
       <c r="J570">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K570" s="7">
         <v>0</v>
@@ -78368,7 +78370,7 @@
         <v>0</v>
       </c>
       <c r="S570">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="T570" t="s">
         <v>156</v>
@@ -78383,13 +78385,13 @@
         <v>46</v>
       </c>
       <c r="X570">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="Y570">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Z570">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA570">
         <v>1</v>
@@ -78428,19 +78430,19 @@
         <v>0</v>
       </c>
       <c r="AM570">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AN570">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AO570">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP570">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AQ570">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="571" spans="1:43" x14ac:dyDescent="0.25">
@@ -78472,7 +78474,7 @@
         <v>20</v>
       </c>
       <c r="J571">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K571" s="7">
         <v>0</v>
@@ -78499,7 +78501,7 @@
         <v>0</v>
       </c>
       <c r="S571">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="T571" t="s">
         <v>156</v>
@@ -78514,13 +78516,13 @@
         <v>46</v>
       </c>
       <c r="X571">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="Y571">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Z571">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA571">
         <v>1</v>
@@ -78559,19 +78561,19 @@
         <v>0</v>
       </c>
       <c r="AM571">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AN571">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AO571">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP571">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AQ571">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="572" spans="1:43" x14ac:dyDescent="0.25">
@@ -78603,7 +78605,7 @@
         <v>20</v>
       </c>
       <c r="J572">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K572" s="7">
         <v>0</v>
@@ -78630,7 +78632,7 @@
         <v>0</v>
       </c>
       <c r="S572">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="T572" t="s">
         <v>156</v>
@@ -78645,13 +78647,13 @@
         <v>46</v>
       </c>
       <c r="X572">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="Y572">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Z572">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA572">
         <v>1</v>
@@ -78690,19 +78692,19 @@
         <v>0</v>
       </c>
       <c r="AM572">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AN572">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AO572">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP572">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AQ572">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="573" spans="1:43" x14ac:dyDescent="0.25">
@@ -78734,7 +78736,7 @@
         <v>18</v>
       </c>
       <c r="J573">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K573" s="7">
         <v>0</v>
@@ -78761,7 +78763,7 @@
         <v>0</v>
       </c>
       <c r="S573">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="T573" t="s">
         <v>156</v>
@@ -78776,13 +78778,13 @@
         <v>46</v>
       </c>
       <c r="X573">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y573">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Z573">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AA573">
         <v>2</v>
@@ -78821,19 +78823,19 @@
         <v>0</v>
       </c>
       <c r="AM573">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AN573">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AO573">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AP573">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AQ573">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="574" spans="1:43" x14ac:dyDescent="0.25">
@@ -78865,7 +78867,7 @@
         <v>40</v>
       </c>
       <c r="J574">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K574" s="7">
         <v>0</v>
@@ -78892,7 +78894,7 @@
         <v>0</v>
       </c>
       <c r="S574">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="T574" t="s">
         <v>156</v>
@@ -78907,13 +78909,13 @@
         <v>46</v>
       </c>
       <c r="X574">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="Y574">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Z574">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA574">
         <v>1</v>
@@ -78952,19 +78954,19 @@
         <v>0</v>
       </c>
       <c r="AM574">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN574">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO574">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP574">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AQ574">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="575" spans="1:43" x14ac:dyDescent="0.25">
@@ -78996,7 +78998,7 @@
         <v>40</v>
       </c>
       <c r="J575">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K575" s="7">
         <v>0</v>
@@ -79023,7 +79025,7 @@
         <v>0</v>
       </c>
       <c r="S575">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="T575" t="s">
         <v>156</v>
@@ -79038,13 +79040,13 @@
         <v>46</v>
       </c>
       <c r="X575">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="Y575">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Z575">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA575">
         <v>1</v>
@@ -79083,19 +79085,19 @@
         <v>0</v>
       </c>
       <c r="AM575">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN575">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO575">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP575">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AQ575">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="576" spans="1:43" x14ac:dyDescent="0.25">
@@ -79127,7 +79129,7 @@
         <v>40</v>
       </c>
       <c r="J576">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K576" s="7">
         <v>0</v>
@@ -79154,7 +79156,7 @@
         <v>0</v>
       </c>
       <c r="S576">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="T576" t="s">
         <v>156</v>
@@ -79169,13 +79171,13 @@
         <v>46</v>
       </c>
       <c r="X576">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="Y576">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Z576">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA576">
         <v>1</v>
@@ -79214,19 +79216,19 @@
         <v>0</v>
       </c>
       <c r="AM576">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN576">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO576">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP576">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AQ576">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="577" spans="1:43" x14ac:dyDescent="0.25">
@@ -79258,7 +79260,7 @@
         <v>36</v>
       </c>
       <c r="J577">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="K577" s="7">
         <v>0</v>
@@ -79285,7 +79287,7 @@
         <v>0</v>
       </c>
       <c r="S577">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="T577" t="s">
         <v>156</v>
@@ -79300,13 +79302,13 @@
         <v>46</v>
       </c>
       <c r="X577">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y577">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Z577">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AA577">
         <v>2</v>
@@ -79345,19 +79347,19 @@
         <v>0</v>
       </c>
       <c r="AM577">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AN577">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AO577">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AP577">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AQ577">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="578" spans="1:43" x14ac:dyDescent="0.25">
@@ -79389,7 +79391,7 @@
         <v>60</v>
       </c>
       <c r="J578">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K578" s="7">
         <v>0</v>
@@ -79416,7 +79418,7 @@
         <v>0</v>
       </c>
       <c r="S578">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="T578" t="s">
         <v>156</v>
@@ -79431,13 +79433,13 @@
         <v>46</v>
       </c>
       <c r="X578">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="Y578">
+        <v>45</v>
+      </c>
+      <c r="Z578">
         <v>30</v>
-      </c>
-      <c r="Z578">
-        <v>20</v>
       </c>
       <c r="AA578">
         <v>1</v>
@@ -79476,19 +79478,19 @@
         <v>0</v>
       </c>
       <c r="AM578">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN578">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO578">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AP578">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AQ578">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="579" spans="1:43" x14ac:dyDescent="0.25">
@@ -79520,7 +79522,7 @@
         <v>60</v>
       </c>
       <c r="J579">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K579" s="7">
         <v>0</v>
@@ -79547,7 +79549,7 @@
         <v>0</v>
       </c>
       <c r="S579">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="T579" t="s">
         <v>156</v>
@@ -79562,13 +79564,13 @@
         <v>46</v>
       </c>
       <c r="X579">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="Y579">
+        <v>45</v>
+      </c>
+      <c r="Z579">
         <v>30</v>
-      </c>
-      <c r="Z579">
-        <v>20</v>
       </c>
       <c r="AA579">
         <v>1</v>
@@ -79607,19 +79609,19 @@
         <v>0</v>
       </c>
       <c r="AM579">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN579">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO579">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AP579">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AQ579">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="580" spans="1:43" x14ac:dyDescent="0.25">
@@ -79651,7 +79653,7 @@
         <v>60</v>
       </c>
       <c r="J580">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K580" s="7">
         <v>0</v>
@@ -79678,7 +79680,7 @@
         <v>0</v>
       </c>
       <c r="S580">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="T580" t="s">
         <v>156</v>
@@ -79693,13 +79695,13 @@
         <v>46</v>
       </c>
       <c r="X580">
-        <v>6.67</v>
+        <v>10</v>
       </c>
       <c r="Y580">
+        <v>45</v>
+      </c>
+      <c r="Z580">
         <v>30</v>
-      </c>
-      <c r="Z580">
-        <v>20</v>
       </c>
       <c r="AA580">
         <v>1</v>
@@ -79738,19 +79740,19 @@
         <v>0</v>
       </c>
       <c r="AM580">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN580">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO580">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AP580">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AQ580">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="581" spans="1:43" x14ac:dyDescent="0.25">
@@ -79782,7 +79784,7 @@
         <v>54</v>
       </c>
       <c r="J581">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="K581" s="7">
         <v>0</v>
@@ -79809,7 +79811,7 @@
         <v>0</v>
       </c>
       <c r="S581">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="T581" t="s">
         <v>156</v>
@@ -79824,13 +79826,13 @@
         <v>46</v>
       </c>
       <c r="X581">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y581">
+        <v>40.5</v>
+      </c>
+      <c r="Z581">
         <v>27</v>
-      </c>
-      <c r="Z581">
-        <v>18</v>
       </c>
       <c r="AA581">
         <v>2</v>
@@ -79869,19 +79871,19 @@
         <v>0</v>
       </c>
       <c r="AM581">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AN581">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AO581">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AP581">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AQ581">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="582" spans="1:43" x14ac:dyDescent="0.25">
@@ -80044,7 +80046,7 @@
         <v>60</v>
       </c>
       <c r="J583">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K583" s="7">
         <v>0</v>
@@ -80086,13 +80088,13 @@
         <v>46</v>
       </c>
       <c r="X583">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y583">
-        <v>21</v>
+        <v>22.8</v>
       </c>
       <c r="Z583">
-        <v>9.5500000000000007</v>
+        <v>10.36</v>
       </c>
       <c r="AA583">
         <v>1</v>
@@ -80131,19 +80133,19 @@
         <v>0</v>
       </c>
       <c r="AM583">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AN583">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AO583">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AP583">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AQ583">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="584" spans="1:43" x14ac:dyDescent="0.25">
@@ -80202,7 +80204,7 @@
         <v>0</v>
       </c>
       <c r="S584">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="T584" t="s">
         <v>77</v>
@@ -80726,7 +80728,7 @@
         <v>0</v>
       </c>
       <c r="S588">
-        <v>40</v>
+        <v>1600</v>
       </c>
       <c r="T588" t="s">
         <v>86</v>
@@ -81092,7 +81094,7 @@
         <v>25</v>
       </c>
       <c r="J591">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="K591" s="7">
         <v>0</v>
@@ -81134,13 +81136,13 @@
         <v>46</v>
       </c>
       <c r="X591">
-        <v>14.67</v>
+        <v>15.92</v>
       </c>
       <c r="Y591">
-        <v>14.67</v>
+        <v>15.92</v>
       </c>
       <c r="Z591">
-        <v>8.8000000000000007</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="AA591">
         <v>1</v>
@@ -81179,19 +81181,19 @@
         <v>0</v>
       </c>
       <c r="AM591">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AN591">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AO591">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AP591">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="AQ591">
-        <v>25</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="592" spans="1:43" x14ac:dyDescent="0.25">
@@ -81250,7 +81252,7 @@
         <v>0</v>
       </c>
       <c r="S592">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T592" t="s">
         <v>183</v>
@@ -81616,7 +81618,7 @@
         <v>45</v>
       </c>
       <c r="J595">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="K595" s="7">
         <v>0</v>
@@ -81658,13 +81660,13 @@
         <v>46</v>
       </c>
       <c r="X595">
-        <v>19.5</v>
+        <v>21.19</v>
       </c>
       <c r="Y595">
-        <v>15.6</v>
+        <v>16.95</v>
       </c>
       <c r="Z595">
-        <v>11.14</v>
+        <v>12.11</v>
       </c>
       <c r="AA595">
         <v>1</v>
@@ -81703,19 +81705,19 @@
         <v>0</v>
       </c>
       <c r="AM595">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AN595">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AO595">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AP595">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
       <c r="AQ595">
-        <v>45</v>
+        <v>51.749999999999993</v>
       </c>
     </row>
     <row r="596" spans="1:43" x14ac:dyDescent="0.25">
@@ -81774,7 +81776,7 @@
         <v>0</v>
       </c>
       <c r="S596">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="T596" t="s">
         <v>89</v>
@@ -82295,7 +82297,7 @@
         <v>2</v>
       </c>
       <c r="R600" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S600">
         <v>0</v>
@@ -82426,7 +82428,7 @@
         <v>1</v>
       </c>
       <c r="R601" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S601">
         <v>0</v>
@@ -82560,7 +82562,7 @@
         <v>0</v>
       </c>
       <c r="S602">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T602" t="s">
         <v>748</v>
@@ -85415,7 +85417,7 @@
         <v>50</v>
       </c>
       <c r="J624">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K624" s="7">
         <v>0</v>
@@ -85457,13 +85459,13 @@
         <v>46</v>
       </c>
       <c r="X624">
-        <v>6.67</v>
+        <v>8.75</v>
       </c>
       <c r="Y624">
-        <v>26.67</v>
+        <v>35</v>
       </c>
       <c r="Z624">
-        <v>13.33</v>
+        <v>17.5</v>
       </c>
       <c r="AA624">
         <v>1</v>
@@ -85502,19 +85504,19 @@
         <v>150</v>
       </c>
       <c r="AM624">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AN624">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO624">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AP624">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AQ624">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="625" spans="1:43" x14ac:dyDescent="0.25">
@@ -85546,7 +85548,7 @@
         <v>40</v>
       </c>
       <c r="J625">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K625" s="7">
         <v>0</v>
@@ -85588,13 +85590,13 @@
         <v>46</v>
       </c>
       <c r="X625">
-        <v>3.89</v>
+        <v>5</v>
       </c>
       <c r="Y625">
-        <v>23.33</v>
+        <v>30</v>
       </c>
       <c r="Z625">
-        <v>10</v>
+        <v>12.86</v>
       </c>
       <c r="AA625">
         <v>1</v>
@@ -85633,19 +85635,19 @@
         <v>200</v>
       </c>
       <c r="AM625">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN625">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO625">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP625">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AQ625">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="626" spans="1:43" x14ac:dyDescent="0.25">
@@ -85677,7 +85679,7 @@
         <v>75</v>
       </c>
       <c r="J626">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="K626" s="7">
         <v>0</v>
@@ -85719,13 +85721,13 @@
         <v>46</v>
       </c>
       <c r="X626">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="Y626">
-        <v>30</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="Z626">
-        <v>13.33</v>
+        <v>17.5</v>
       </c>
       <c r="AA626">
         <v>1</v>
@@ -85764,19 +85766,19 @@
         <v>150</v>
       </c>
       <c r="AM626">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AN626">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AO626">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AP626">
-        <v>75</v>
+        <v>112.5</v>
       </c>
       <c r="AQ626">
-        <v>75</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="627" spans="1:43" x14ac:dyDescent="0.25">
@@ -85808,7 +85810,7 @@
         <v>60</v>
       </c>
       <c r="J627">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K627" s="7">
         <v>0</v>
@@ -85850,13 +85852,13 @@
         <v>46</v>
       </c>
       <c r="X627">
-        <v>4.38</v>
+        <v>5.62</v>
       </c>
       <c r="Y627">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Z627">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA627">
         <v>1</v>
@@ -85895,19 +85897,19 @@
         <v>200</v>
       </c>
       <c r="AM627">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN627">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AO627">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AP627">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AQ627">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="628" spans="1:43" x14ac:dyDescent="0.25">
@@ -85939,7 +85941,7 @@
         <v>100</v>
       </c>
       <c r="J628">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K628" s="7">
         <v>0</v>
@@ -85981,13 +85983,13 @@
         <v>46</v>
       </c>
       <c r="X628">
-        <v>8.89</v>
+        <v>11.67</v>
       </c>
       <c r="Y628">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Z628">
-        <v>12.31</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="AA628">
         <v>1</v>
@@ -86026,19 +86028,19 @@
         <v>150</v>
       </c>
       <c r="AM628">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AN628">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AO628">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AP628">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AQ628">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="629" spans="1:43" x14ac:dyDescent="0.25">
@@ -86070,7 +86072,7 @@
         <v>80</v>
       </c>
       <c r="J629">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K629" s="7">
         <v>0</v>
@@ -86112,13 +86114,13 @@
         <v>46</v>
       </c>
       <c r="X629">
-        <v>3.89</v>
+        <v>5</v>
       </c>
       <c r="Y629">
-        <v>23.33</v>
+        <v>30</v>
       </c>
       <c r="Z629">
-        <v>10</v>
+        <v>12.86</v>
       </c>
       <c r="AA629">
         <v>1</v>
@@ -86157,19 +86159,19 @@
         <v>200</v>
       </c>
       <c r="AM629">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN629">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AO629">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP629">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AQ629">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="630" spans="1:43" x14ac:dyDescent="0.25">
@@ -86201,7 +86203,7 @@
         <v>25</v>
       </c>
       <c r="J630">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="K630" s="7">
         <v>0</v>
@@ -86243,13 +86245,13 @@
         <v>46</v>
       </c>
       <c r="X630">
-        <v>6.67</v>
+        <v>8.75</v>
       </c>
       <c r="Y630">
-        <v>20</v>
+        <v>26.25</v>
       </c>
       <c r="Z630">
-        <v>13.33</v>
+        <v>17.5</v>
       </c>
       <c r="AA630">
         <v>1</v>
@@ -86288,19 +86290,19 @@
         <v>150</v>
       </c>
       <c r="AM630">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AN630">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AO630">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AP630">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="AQ630">
-        <v>25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="631" spans="1:43" x14ac:dyDescent="0.25">
@@ -86332,7 +86334,7 @@
         <v>20</v>
       </c>
       <c r="J631">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K631" s="7">
         <v>0</v>
@@ -86374,13 +86376,13 @@
         <v>46</v>
       </c>
       <c r="X631">
-        <v>3.89</v>
+        <v>5</v>
       </c>
       <c r="Y631">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="Z631">
-        <v>8.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA631">
         <v>1</v>
@@ -86419,19 +86421,19 @@
         <v>200</v>
       </c>
       <c r="AM631">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AN631">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AO631">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP631">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AQ631">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="632" spans="1:43" x14ac:dyDescent="0.25">
@@ -86463,7 +86465,7 @@
         <v>60</v>
       </c>
       <c r="J632">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K632" s="7">
         <v>0</v>
@@ -86490,7 +86492,7 @@
         <v>0</v>
       </c>
       <c r="S632">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T632" t="s">
         <v>127</v>
@@ -86505,13 +86507,13 @@
         <v>46</v>
       </c>
       <c r="X632">
-        <v>6.33</v>
+        <v>7.93</v>
       </c>
       <c r="Y632">
-        <v>47.5</v>
+        <v>59.5</v>
       </c>
       <c r="Z632">
-        <v>15.83</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="AA632">
         <v>1</v>
@@ -86550,19 +86552,19 @@
         <v>0</v>
       </c>
       <c r="AM632">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AN632">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AO632">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AP632">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AQ632">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="633" spans="1:43" x14ac:dyDescent="0.25">
@@ -86594,7 +86596,7 @@
         <v>75</v>
       </c>
       <c r="J633">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K633" s="7">
         <v>0</v>
@@ -86621,7 +86623,7 @@
         <v>0</v>
       </c>
       <c r="S633">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="T633" t="s">
         <v>782</v>
@@ -86636,13 +86638,13 @@
         <v>46</v>
       </c>
       <c r="X633">
-        <v>5.71</v>
+        <v>7.14</v>
       </c>
       <c r="Y633">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z633">
-        <v>13.33</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="AA633">
         <v>1</v>
@@ -86681,19 +86683,19 @@
         <v>0</v>
       </c>
       <c r="AM633">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AN633">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AO633">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AP633">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AQ633">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="634" spans="1:43" x14ac:dyDescent="0.25">
@@ -86725,7 +86727,7 @@
         <v>100</v>
       </c>
       <c r="J634">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K634" s="7">
         <v>0</v>
@@ -86752,7 +86754,7 @@
         <v>0</v>
       </c>
       <c r="S634">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="T634" t="s">
         <v>295</v>
@@ -86767,13 +86769,13 @@
         <v>46</v>
       </c>
       <c r="X634">
-        <v>6.67</v>
+        <v>8.33</v>
       </c>
       <c r="Y634">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z634">
-        <v>13.33</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="AA634">
         <v>1</v>
@@ -86812,19 +86814,19 @@
         <v>0</v>
       </c>
       <c r="AM634">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AN634">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AO634">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AP634">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AQ634">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="635" spans="1:43" x14ac:dyDescent="0.25">
@@ -86856,7 +86858,7 @@
         <v>25</v>
       </c>
       <c r="J635">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K635" s="7">
         <v>0</v>
@@ -86883,7 +86885,7 @@
         <v>0</v>
       </c>
       <c r="S635">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T635" t="s">
         <v>787</v>
@@ -86898,13 +86900,13 @@
         <v>46</v>
       </c>
       <c r="X635">
-        <v>4.4400000000000004</v>
+        <v>5.56</v>
       </c>
       <c r="Y635">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z635">
-        <v>13.33</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="AA635">
         <v>1</v>
@@ -86943,19 +86945,19 @@
         <v>0</v>
       </c>
       <c r="AM635">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AN635">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AO635">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AP635">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AQ635">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="636" spans="1:43" x14ac:dyDescent="0.25">
@@ -88035,7 +88037,7 @@
         <v>20</v>
       </c>
       <c r="J644">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K644" s="7">
         <v>0</v>
@@ -88077,13 +88079,13 @@
         <v>46</v>
       </c>
       <c r="X644">
-        <v>9.33</v>
+        <v>16</v>
       </c>
       <c r="Y644">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Z644">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AA644">
         <v>1</v>
@@ -88122,19 +88124,19 @@
         <v>0</v>
       </c>
       <c r="AM644">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AN644">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AO644">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AP644">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AQ644">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="645" spans="1:43" x14ac:dyDescent="0.25">
@@ -88166,7 +88168,7 @@
         <v>40</v>
       </c>
       <c r="J645">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K645" s="7">
         <v>0</v>
@@ -88208,13 +88210,13 @@
         <v>46</v>
       </c>
       <c r="X645">
-        <v>9.33</v>
+        <v>16</v>
       </c>
       <c r="Y645">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Z645">
-        <v>11.2</v>
+        <v>19.2</v>
       </c>
       <c r="AA645">
         <v>1</v>
@@ -88253,19 +88255,19 @@
         <v>0</v>
       </c>
       <c r="AM645">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AN645">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AO645">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AP645">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AQ645">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="646" spans="1:43" x14ac:dyDescent="0.25">
@@ -88297,7 +88299,7 @@
         <v>60</v>
       </c>
       <c r="J646">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K646" s="7">
         <v>0</v>
@@ -88339,13 +88341,13 @@
         <v>46</v>
       </c>
       <c r="X646">
-        <v>9.33</v>
+        <v>16</v>
       </c>
       <c r="Y646">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Z646">
-        <v>12</v>
+        <v>20.57</v>
       </c>
       <c r="AA646">
         <v>1</v>
@@ -88384,19 +88386,19 @@
         <v>0</v>
       </c>
       <c r="AM646">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN646">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AO646">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AP646">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AQ646">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="647" spans="1:43" x14ac:dyDescent="0.25">
@@ -88428,7 +88430,7 @@
         <v>80</v>
       </c>
       <c r="J647">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K647" s="7">
         <v>0</v>
@@ -88470,13 +88472,13 @@
         <v>46</v>
       </c>
       <c r="X647">
-        <v>9.33</v>
+        <v>16</v>
       </c>
       <c r="Y647">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Z647">
-        <v>11.2</v>
+        <v>19.2</v>
       </c>
       <c r="AA647">
         <v>1</v>
@@ -88515,19 +88517,19 @@
         <v>0</v>
       </c>
       <c r="AM647">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AN647">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AO647">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AP647">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AQ647">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="648" spans="1:43" x14ac:dyDescent="0.25">
@@ -88559,7 +88561,7 @@
         <v>15</v>
       </c>
       <c r="J648">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K648" s="7">
         <v>0</v>
@@ -88601,13 +88603,13 @@
         <v>46</v>
       </c>
       <c r="X648">
-        <v>9.75</v>
+        <v>13.5</v>
       </c>
       <c r="Y648">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="Z648">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AA648">
         <v>1</v>
@@ -88646,19 +88648,19 @@
         <v>0</v>
       </c>
       <c r="AM648">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AN648">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AO648">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AP648">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AQ648">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="649" spans="1:43" x14ac:dyDescent="0.25">
@@ -88690,7 +88692,7 @@
         <v>25</v>
       </c>
       <c r="J649">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K649" s="7">
         <v>0</v>
@@ -88732,13 +88734,13 @@
         <v>46</v>
       </c>
       <c r="X649">
-        <v>10.83</v>
+        <v>15</v>
       </c>
       <c r="Y649">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="Z649">
-        <v>21.67</v>
+        <v>30</v>
       </c>
       <c r="AA649">
         <v>1</v>
@@ -88777,19 +88779,19 @@
         <v>0</v>
       </c>
       <c r="AM649">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AN649">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO649">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AP649">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AQ649">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="650" spans="1:43" x14ac:dyDescent="0.25">
@@ -88821,7 +88823,7 @@
         <v>35</v>
       </c>
       <c r="J650">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="K650" s="7">
         <v>0</v>
@@ -88863,13 +88865,13 @@
         <v>46</v>
       </c>
       <c r="X650">
-        <v>11.38</v>
+        <v>15.75</v>
       </c>
       <c r="Y650">
-        <v>30.33</v>
+        <v>42</v>
       </c>
       <c r="Z650">
-        <v>20.22</v>
+        <v>28</v>
       </c>
       <c r="AA650">
         <v>1</v>
@@ -88908,19 +88910,19 @@
         <v>0</v>
       </c>
       <c r="AM650">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AN650">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AO650">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AP650">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AQ650">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="651" spans="1:43" x14ac:dyDescent="0.25">
@@ -88952,7 +88954,7 @@
         <v>45</v>
       </c>
       <c r="J651">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="K651" s="7">
         <v>0</v>
@@ -88994,13 +88996,13 @@
         <v>46</v>
       </c>
       <c r="X651">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y651">
-        <v>29.25</v>
+        <v>40.5</v>
       </c>
       <c r="Z651">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AA651">
         <v>1</v>
@@ -89039,19 +89041,19 @@
         <v>0</v>
       </c>
       <c r="AM651">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="AN651">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="AO651">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="AP651">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="AQ651">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="652" spans="1:43" x14ac:dyDescent="0.25">
@@ -89110,7 +89112,7 @@
         <v>0</v>
       </c>
       <c r="S652">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="T652" t="s">
         <v>70</v>
@@ -89241,7 +89243,7 @@
         <v>0</v>
       </c>
       <c r="S653">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T653" t="s">
         <v>70</v>
@@ -89372,7 +89374,7 @@
         <v>0</v>
       </c>
       <c r="S654">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="T654" t="s">
         <v>70</v>
@@ -89503,7 +89505,7 @@
         <v>0</v>
       </c>
       <c r="S655">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T655" t="s">
         <v>70</v>
@@ -89631,7 +89633,7 @@
         <v>10</v>
       </c>
       <c r="R656" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S656">
         <v>0</v>
@@ -90158,7 +90160,7 @@
         <v>0</v>
       </c>
       <c r="S660">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="T660" t="s">
         <v>425</v>
@@ -90289,7 +90291,7 @@
         <v>0</v>
       </c>
       <c r="S661">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="T661" t="s">
         <v>427</v>
@@ -91072,7 +91074,7 @@
         <v>10</v>
       </c>
       <c r="R667" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S667">
         <v>0</v>
@@ -91179,7 +91181,7 @@
         <v>10</v>
       </c>
       <c r="J668">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K668" s="7">
         <v>0</v>
@@ -91221,13 +91223,13 @@
         <v>46</v>
       </c>
       <c r="X668">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Y668">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Z668">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AA668">
         <v>1</v>
@@ -91266,19 +91268,19 @@
         <v>0</v>
       </c>
       <c r="AM668">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN668">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO668">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP668">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ668">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="669" spans="1:43" x14ac:dyDescent="0.25">
@@ -92644,7 +92646,7 @@
         <v>0</v>
       </c>
       <c r="R679" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S679">
         <v>0</v>
@@ -93430,7 +93432,7 @@
         <v>5</v>
       </c>
       <c r="R685" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S685">
         <v>0</v>
@@ -94871,7 +94873,7 @@
         <v>1</v>
       </c>
       <c r="R696" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S696">
         <v>0</v>
@@ -95133,7 +95135,7 @@
         <v>10</v>
       </c>
       <c r="R698" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S698">
         <v>0</v>
@@ -95919,7 +95921,7 @@
         <v>2</v>
       </c>
       <c r="R704" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S704">
         <v>0</v>
@@ -97098,7 +97100,7 @@
         <v>0</v>
       </c>
       <c r="R713" s="6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S713">
         <v>0</v>
@@ -97887,7 +97889,7 @@
         <v>0</v>
       </c>
       <c r="S719">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T719" t="s">
         <v>70</v>
@@ -98018,7 +98020,7 @@
         <v>0</v>
       </c>
       <c r="S720">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="T720" t="s">
         <v>70</v>
@@ -98149,7 +98151,7 @@
         <v>0</v>
       </c>
       <c r="S721">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="T721" t="s">
         <v>70</v>
@@ -98280,7 +98282,7 @@
         <v>0</v>
       </c>
       <c r="S722">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="T722" t="s">
         <v>70</v>
@@ -99274,7 +99276,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -99282,7 +99283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
